--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_22.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_22.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1128522.557536159</v>
+        <v>1172899.481698895</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13360835.96253918</v>
+        <v>12157779.51246666</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3999173.134613247</v>
+        <v>2820057.50789716</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6510736.441201759</v>
+        <v>6980329.903588222</v>
       </c>
     </row>
     <row r="11">
@@ -656,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>52.89001840133299</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>278.9382361866</v>
       </c>
       <c r="G2" t="n">
         <v>400.2956717864458</v>
@@ -710,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -820,16 +822,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>51.58543740429398</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>11.12043047005112</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
         <v>277.3826040146988</v>
@@ -899,22 +901,22 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>136.6003591431054</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>250.4927323967627</v>
       </c>
     </row>
     <row r="6">
@@ -1054,22 +1056,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>123.0673923170403</v>
       </c>
       <c r="I7" t="n">
         <v>98.77088257712678</v>
@@ -1099,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
@@ -1139,10 +1141,10 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1184,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>233.8840445402083</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>147.9561792975861</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>168.9733955350582</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>142.3583058069271</v>
@@ -1336,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1367,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>97.37896090070868</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1418,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>359.3567829343093</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -1543,10 +1545,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1582,10 +1584,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>125.4203831793925</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1604,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>306.15423619111</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>72.97710744225284</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>407.6027988439302</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>133.9073134702963</v>
+        <v>51.58543740429398</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1828,10 +1830,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1864,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2002,25 +2004,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>1.80878647707253</v>
+        <v>103.8121020651557</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>168.4336970060565</v>
@@ -2056,7 +2058,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
@@ -2065,7 +2067,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>78.16614128474215</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
@@ -2245,13 +2247,13 @@
         <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>123.9086344760398</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
         <v>278.8943527180514</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>80.8652235539778</v>
       </c>
       <c r="C25" t="n">
         <v>170.2528374898731</v>
@@ -2521,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>161.6737988100371</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2713,10 +2715,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
         <v>164.546123788675</v>
@@ -2725,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>133.6037053931414</v>
+        <v>12.82988994717986</v>
       </c>
       <c r="U28" t="n">
         <v>277.3826040146988</v>
@@ -2947,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>98.26334559068066</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2962,13 +2964,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>168.4336970060565</v>
@@ -3010,7 +3012,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>106.3397188323751</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
@@ -3080,7 +3082,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T32" t="n">
-        <v>218.7163152458144</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U32" t="n">
         <v>255.7713603095518</v>
@@ -3193,7 +3195,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
@@ -3205,7 +3207,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,19 +3237,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>188.9841510855087</v>
+        <v>260.444681387164</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
         <v>240.1382575886529</v>
@@ -3284,7 +3286,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I35" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>168.4336970060565</v>
@@ -3487,7 +3489,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>186.810132212935</v>
+        <v>233.3783593926335</v>
       </c>
       <c r="Y37" t="n">
         <v>224.0793406271554</v>
@@ -3521,7 +3523,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I38" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396345</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3661,10 +3663,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>123.0673923170405</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>98.77088257712678</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>6.13287386842549</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
@@ -3752,7 +3754,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3794,10 +3796,10 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>195.5036250554508</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>178.6464323367722</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3806,7 +3808,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -3901,16 +3903,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>98.15366458399285</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>77.34040729634128</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
         <v>278.8943527180514</v>
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>323.3192081705121</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
@@ -3986,10 +3988,10 @@
         <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
         <v>294.8896947407055</v>
@@ -4031,16 +4033,16 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>188.2408954753665</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -4138,22 +4140,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>161.6737988100375</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1639.969733090428</v>
+        <v>2366.928154317587</v>
       </c>
       <c r="C2" t="n">
-        <v>1639.969733090428</v>
+        <v>1940.027424330887</v>
       </c>
       <c r="D2" t="n">
-        <v>1216.677112275428</v>
+        <v>1516.734803515887</v>
       </c>
       <c r="E2" t="n">
-        <v>1216.677112275428</v>
+        <v>1090.757863663745</v>
       </c>
       <c r="F2" t="n">
-        <v>791.5529304648283</v>
+        <v>809.0020695358658</v>
       </c>
       <c r="G2" t="n">
-        <v>387.2138680542769</v>
+        <v>404.6630071253144</v>
       </c>
       <c r="H2" t="n">
-        <v>89.34548952831176</v>
+        <v>106.7946285993492</v>
       </c>
       <c r="I2" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J2" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K2" t="n">
-        <v>728.2502693850971</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="L2" t="n">
-        <v>801.1857969764337</v>
+        <v>961.6325044602235</v>
       </c>
       <c r="M2" t="n">
-        <v>1474.987448089748</v>
+        <v>1851.367251577627</v>
       </c>
       <c r="N2" t="n">
-        <v>1474.987448089748</v>
+        <v>2741.10199869503</v>
       </c>
       <c r="O2" t="n">
-        <v>1474.987448089748</v>
+        <v>2741.10199869503</v>
       </c>
       <c r="P2" t="n">
-        <v>2148.789099203062</v>
+        <v>3138.802387636839</v>
       </c>
       <c r="Q2" t="n">
-        <v>2604.874578707245</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="R2" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S2" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="T2" t="n">
-        <v>2501.505342633781</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="U2" t="n">
-        <v>2501.505342633781</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="V2" t="n">
-        <v>2501.505342633781</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="W2" t="n">
-        <v>2105.113992934128</v>
+        <v>3198.496517441369</v>
       </c>
       <c r="X2" t="n">
-        <v>1693.393994101875</v>
+        <v>2786.776518609116</v>
       </c>
       <c r="Y2" t="n">
-        <v>1693.393994101875</v>
+        <v>2786.776518609116</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>621.5721093032382</v>
+        <v>2353.323727591968</v>
       </c>
       <c r="C3" t="n">
-        <v>504.066205820743</v>
+        <v>2235.817824109472</v>
       </c>
       <c r="D3" t="n">
-        <v>400.226247336028</v>
+        <v>2131.977865624758</v>
       </c>
       <c r="E3" t="n">
-        <v>295.5243136089652</v>
+        <v>2027.275931897695</v>
       </c>
       <c r="F3" t="n">
-        <v>201.8784832918694</v>
+        <v>1933.630101580599</v>
       </c>
       <c r="G3" t="n">
-        <v>107.8247115094734</v>
+        <v>1839.576329798203</v>
       </c>
       <c r="H3" t="n">
-        <v>54.44861827178296</v>
+        <v>1786.200236560512</v>
       </c>
       <c r="I3" t="n">
-        <v>54.44861827178296</v>
+        <v>1786.200236560512</v>
       </c>
       <c r="J3" t="n">
-        <v>54.44861827178296</v>
+        <v>1786.200236560512</v>
       </c>
       <c r="K3" t="n">
-        <v>54.44861827178296</v>
+        <v>1786.200236560512</v>
       </c>
       <c r="L3" t="n">
-        <v>54.44861827178296</v>
+        <v>1786.200236560512</v>
       </c>
       <c r="M3" t="n">
-        <v>515.5329466256644</v>
+        <v>1786.200236560512</v>
       </c>
       <c r="N3" t="n">
-        <v>515.5329466256644</v>
+        <v>1786.200236560512</v>
       </c>
       <c r="O3" t="n">
-        <v>1189.334597738979</v>
+        <v>2414.544673239745</v>
       </c>
       <c r="P3" t="n">
-        <v>1863.136248852293</v>
+        <v>3130.742390278243</v>
       </c>
       <c r="Q3" t="n">
-        <v>1863.136248852293</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="R3" t="n">
-        <v>1863.136248852293</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S3" t="n">
-        <v>1781.812001413547</v>
+        <v>3513.563619702277</v>
       </c>
       <c r="T3" t="n">
-        <v>1639.932065711226</v>
+        <v>3371.683683999955</v>
       </c>
       <c r="U3" t="n">
-        <v>1455.163869630862</v>
+        <v>3186.915487919592</v>
       </c>
       <c r="V3" t="n">
-        <v>1250.190730770128</v>
+        <v>2981.942349058858</v>
       </c>
       <c r="W3" t="n">
-        <v>1053.669353603346</v>
+        <v>2785.420971892075</v>
       </c>
       <c r="X3" t="n">
-        <v>890.1920073700086</v>
+        <v>2621.943625658738</v>
       </c>
       <c r="Y3" t="n">
-        <v>750.499118723301</v>
+        <v>2482.250737012031</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>739.040692389239</v>
+        <v>295.9768228924842</v>
       </c>
       <c r="C4" t="n">
-        <v>567.068129268155</v>
+        <v>124.0042597714002</v>
       </c>
       <c r="D4" t="n">
-        <v>403.7513563949257</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="E4" t="n">
-        <v>237.5431505477792</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="F4" t="n">
-        <v>65.68137632233964</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="G4" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H4" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I4" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J4" t="n">
-        <v>111.939946495941</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K4" t="n">
-        <v>338.4675477017781</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L4" t="n">
-        <v>693.1568689961989</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M4" t="n">
-        <v>1084.34266396645</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N4" t="n">
-        <v>1461.834174842485</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O4" t="n">
-        <v>1817.262303522249</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P4" t="n">
-        <v>2107.86151544415</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q4" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R4" t="n">
-        <v>2234.861645684911</v>
+        <v>2205.272171443122</v>
       </c>
       <c r="S4" t="n">
-        <v>2234.861645684911</v>
+        <v>2035.137123962257</v>
       </c>
       <c r="T4" t="n">
-        <v>2234.861645684911</v>
+        <v>1791.797776188157</v>
       </c>
       <c r="U4" t="n">
-        <v>1954.677197185216</v>
+        <v>1511.613327688461</v>
       </c>
       <c r="V4" t="n">
-        <v>1672.965729793244</v>
+        <v>1229.90186029649</v>
       </c>
       <c r="W4" t="n">
-        <v>1398.113325965757</v>
+        <v>955.0494564690027</v>
       </c>
       <c r="X4" t="n">
-        <v>1155.549429411563</v>
+        <v>712.4855599148078</v>
       </c>
       <c r="Y4" t="n">
-        <v>929.2066611013047</v>
+        <v>486.1427916045499</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>885.6884106690343</v>
+        <v>2510.296542000307</v>
       </c>
       <c r="C5" t="n">
-        <v>458.7876806823343</v>
+        <v>2083.395812013608</v>
       </c>
       <c r="D5" t="n">
-        <v>458.7876806823343</v>
+        <v>1660.103191198608</v>
       </c>
       <c r="E5" t="n">
-        <v>458.7876806823343</v>
+        <v>1234.126251346466</v>
       </c>
       <c r="F5" t="n">
-        <v>458.7876806823343</v>
+        <v>809.0020695358658</v>
       </c>
       <c r="G5" t="n">
-        <v>54.44861827178296</v>
+        <v>404.6630071253144</v>
       </c>
       <c r="H5" t="n">
-        <v>54.44861827178296</v>
+        <v>106.7946285993492</v>
       </c>
       <c r="I5" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J5" t="n">
-        <v>417.0520770886785</v>
+        <v>434.501216159716</v>
       </c>
       <c r="K5" t="n">
-        <v>417.0520770886785</v>
+        <v>1150.009524135215</v>
       </c>
       <c r="L5" t="n">
-        <v>417.0520770886785</v>
+        <v>1150.009524135215</v>
       </c>
       <c r="M5" t="n">
-        <v>1090.853728201993</v>
+        <v>2039.744271252618</v>
       </c>
       <c r="N5" t="n">
-        <v>1764.655379315307</v>
+        <v>2176.101402604124</v>
       </c>
       <c r="O5" t="n">
-        <v>2438.457030428621</v>
+        <v>3021.246052754936</v>
       </c>
       <c r="P5" t="n">
-        <v>2722.430913589148</v>
+        <v>3021.246052754936</v>
       </c>
       <c r="Q5" t="n">
-        <v>2722.430913589148</v>
+        <v>3477.331532259119</v>
       </c>
       <c r="R5" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S5" t="n">
-        <v>2618.063619462288</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="T5" t="n">
-        <v>2618.063619462288</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="U5" t="n">
-        <v>2480.083458711677</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="V5" t="n">
-        <v>2122.594043837927</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="W5" t="n">
-        <v>2122.594043837927</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="X5" t="n">
-        <v>1710.874045005674</v>
+        <v>3183.167868308769</v>
       </c>
       <c r="Y5" t="n">
-        <v>1305.536774960564</v>
+        <v>2930.144906291837</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>621.5721093032382</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C6" t="n">
-        <v>504.066205820743</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D6" t="n">
-        <v>400.226247336028</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E6" t="n">
-        <v>295.5243136089652</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F6" t="n">
-        <v>201.8784832918694</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G6" t="n">
-        <v>107.8247115094734</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H6" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I6" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J6" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K6" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="L6" t="n">
-        <v>728.2502693850971</v>
+        <v>444.6858538584447</v>
       </c>
       <c r="M6" t="n">
-        <v>728.2502693850971</v>
+        <v>1334.420600975848</v>
       </c>
       <c r="N6" t="n">
-        <v>1402.051920498411</v>
+        <v>1334.420600975848</v>
       </c>
       <c r="O6" t="n">
-        <v>1863.136248852293</v>
+        <v>1334.420600975848</v>
       </c>
       <c r="P6" t="n">
-        <v>1863.136248852293</v>
+        <v>1334.420600975848</v>
       </c>
       <c r="Q6" t="n">
-        <v>1863.136248852293</v>
+        <v>1798.566077838627</v>
       </c>
       <c r="R6" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S6" t="n">
-        <v>1781.812001413547</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T6" t="n">
-        <v>1639.932065711226</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U6" t="n">
-        <v>1455.163869630862</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V6" t="n">
-        <v>1250.190730770128</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W6" t="n">
-        <v>1053.669353603346</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X6" t="n">
-        <v>890.1920073700086</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y6" t="n">
-        <v>750.499118723301</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1137.62974079602</v>
+        <v>295.9768228924842</v>
       </c>
       <c r="C7" t="n">
-        <v>965.6571776749358</v>
+        <v>295.9768228924842</v>
       </c>
       <c r="D7" t="n">
-        <v>802.3404048017065</v>
+        <v>295.9768228924842</v>
       </c>
       <c r="E7" t="n">
-        <v>636.1321989545601</v>
+        <v>295.9768228924842</v>
       </c>
       <c r="F7" t="n">
-        <v>464.2704247291205</v>
+        <v>295.9768228924842</v>
       </c>
       <c r="G7" t="n">
-        <v>298.0134550233526</v>
+        <v>295.9768228924842</v>
       </c>
       <c r="H7" t="n">
-        <v>154.217186531507</v>
+        <v>171.6663256025445</v>
       </c>
       <c r="I7" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J7" t="n">
-        <v>111.939946495941</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K7" t="n">
-        <v>338.4675477017781</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L7" t="n">
-        <v>693.1568689961989</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M7" t="n">
-        <v>1084.34266396645</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N7" t="n">
-        <v>1461.834174842485</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O7" t="n">
-        <v>1817.262303522249</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P7" t="n">
-        <v>2107.86151544415</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q7" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R7" t="n">
-        <v>2234.861645684911</v>
+        <v>2205.272171443122</v>
       </c>
       <c r="S7" t="n">
-        <v>2234.861645684911</v>
+        <v>2035.137123962257</v>
       </c>
       <c r="T7" t="n">
-        <v>2234.861645684911</v>
+        <v>1791.797776188157</v>
       </c>
       <c r="U7" t="n">
-        <v>2234.861645684911</v>
+        <v>1511.613327688461</v>
       </c>
       <c r="V7" t="n">
-        <v>2071.554778200025</v>
+        <v>1229.90186029649</v>
       </c>
       <c r="W7" t="n">
-        <v>1796.702374372538</v>
+        <v>955.0494564690027</v>
       </c>
       <c r="X7" t="n">
-        <v>1554.138477818344</v>
+        <v>712.4855599148078</v>
       </c>
       <c r="Y7" t="n">
-        <v>1327.795709508086</v>
+        <v>486.1427916045499</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>904.6419690734826</v>
+        <v>1773.192229807262</v>
       </c>
       <c r="C8" t="n">
-        <v>477.7412390867827</v>
+        <v>1346.291499820562</v>
       </c>
       <c r="D8" t="n">
-        <v>54.44861827178296</v>
+        <v>922.9988790055627</v>
       </c>
       <c r="E8" t="n">
-        <v>54.44861827178296</v>
+        <v>497.0219391534202</v>
       </c>
       <c r="F8" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="G8" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H8" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I8" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J8" t="n">
-        <v>417.0520770886785</v>
+        <v>434.501216159716</v>
       </c>
       <c r="K8" t="n">
-        <v>1090.853728201993</v>
+        <v>1150.009524135215</v>
       </c>
       <c r="L8" t="n">
-        <v>1764.655379315307</v>
+        <v>2039.744271252618</v>
       </c>
       <c r="M8" t="n">
-        <v>2048.629262475834</v>
+        <v>2039.744271252618</v>
       </c>
       <c r="N8" t="n">
-        <v>2722.430913589148</v>
+        <v>2041.463937832282</v>
       </c>
       <c r="O8" t="n">
-        <v>2722.430913589148</v>
+        <v>2886.608587983094</v>
       </c>
       <c r="P8" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="Q8" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="R8" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S8" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="T8" t="n">
-        <v>2501.505342633781</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="U8" t="n">
-        <v>2243.150433230194</v>
+        <v>3358.641357504448</v>
       </c>
       <c r="V8" t="n">
-        <v>1885.661018356443</v>
+        <v>3001.151942630698</v>
       </c>
       <c r="W8" t="n">
-        <v>1885.661018356443</v>
+        <v>2604.760592931045</v>
       </c>
       <c r="X8" t="n">
-        <v>1473.941019524191</v>
+        <v>2193.040594098792</v>
       </c>
       <c r="Y8" t="n">
-        <v>1324.490333365013</v>
+        <v>2193.040594098792</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>621.5721093032382</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C9" t="n">
-        <v>504.066205820743</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D9" t="n">
-        <v>400.226247336028</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E9" t="n">
-        <v>295.5243136089652</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F9" t="n">
-        <v>201.8784832918694</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G9" t="n">
-        <v>107.8247115094734</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H9" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I9" t="n">
-        <v>61.8952612336948</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="J9" t="n">
-        <v>61.8952612336948</v>
+        <v>351.0418895843234</v>
       </c>
       <c r="K9" t="n">
-        <v>61.8952612336948</v>
+        <v>351.0418895843234</v>
       </c>
       <c r="L9" t="n">
-        <v>61.8952612336948</v>
+        <v>351.0418895843234</v>
       </c>
       <c r="M9" t="n">
-        <v>735.6969123470089</v>
+        <v>351.0418895843234</v>
       </c>
       <c r="N9" t="n">
-        <v>1189.334597738979</v>
+        <v>351.0418895843234</v>
       </c>
       <c r="O9" t="n">
-        <v>1863.136248852293</v>
+        <v>1082.368360800129</v>
       </c>
       <c r="P9" t="n">
-        <v>1863.136248852293</v>
+        <v>1798.566077838627</v>
       </c>
       <c r="Q9" t="n">
-        <v>1863.136248852293</v>
+        <v>1798.566077838627</v>
       </c>
       <c r="R9" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S9" t="n">
-        <v>1781.812001413547</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T9" t="n">
-        <v>1639.932065711226</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U9" t="n">
-        <v>1455.163869630862</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V9" t="n">
-        <v>1250.190730770128</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W9" t="n">
-        <v>1053.669353603346</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X9" t="n">
-        <v>890.1920073700086</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y9" t="n">
-        <v>750.499118723301</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1137.62974079602</v>
+        <v>315.4625940943901</v>
       </c>
       <c r="C10" t="n">
-        <v>965.6571776749358</v>
+        <v>315.4625940943901</v>
       </c>
       <c r="D10" t="n">
-        <v>802.3404048017065</v>
+        <v>315.4625940943901</v>
       </c>
       <c r="E10" t="n">
-        <v>636.1321989545601</v>
+        <v>315.4625940943901</v>
       </c>
       <c r="F10" t="n">
-        <v>464.2704247291205</v>
+        <v>315.4625940943901</v>
       </c>
       <c r="G10" t="n">
-        <v>298.0134550233526</v>
+        <v>315.4625940943901</v>
       </c>
       <c r="H10" t="n">
-        <v>154.217186531507</v>
+        <v>171.6663256025445</v>
       </c>
       <c r="I10" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J10" t="n">
-        <v>111.939946495941</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K10" t="n">
-        <v>338.4675477017781</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L10" t="n">
-        <v>693.1568689961989</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M10" t="n">
-        <v>1084.34266396645</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N10" t="n">
-        <v>1461.834174842485</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O10" t="n">
-        <v>1817.262303522249</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P10" t="n">
-        <v>2107.86151544415</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q10" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R10" t="n">
-        <v>2234.861645684911</v>
+        <v>2205.272171443122</v>
       </c>
       <c r="S10" t="n">
-        <v>2234.861645684911</v>
+        <v>2035.137123962257</v>
       </c>
       <c r="T10" t="n">
-        <v>2234.861645684911</v>
+        <v>1791.797776188157</v>
       </c>
       <c r="U10" t="n">
-        <v>2234.861645684911</v>
+        <v>1511.613327688461</v>
       </c>
       <c r="V10" t="n">
-        <v>2071.554778200025</v>
+        <v>1229.90186029649</v>
       </c>
       <c r="W10" t="n">
-        <v>1796.702374372538</v>
+        <v>955.0494564690027</v>
       </c>
       <c r="X10" t="n">
-        <v>1554.138477818344</v>
+        <v>712.4855599148078</v>
       </c>
       <c r="Y10" t="n">
-        <v>1327.795709508086</v>
+        <v>486.1427916045499</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1733.181423160076</v>
+        <v>1020.453694912913</v>
       </c>
       <c r="C11" t="n">
-        <v>1733.181423160076</v>
+        <v>593.5529649262128</v>
       </c>
       <c r="D11" t="n">
-        <v>1309.888802345077</v>
+        <v>170.260344111213</v>
       </c>
       <c r="E11" t="n">
-        <v>883.9118624929341</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="F11" t="n">
-        <v>458.7876806823343</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="G11" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H11" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I11" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J11" t="n">
-        <v>417.0520770886785</v>
+        <v>434.501216159716</v>
       </c>
       <c r="K11" t="n">
-        <v>1090.853728201993</v>
+        <v>1150.009524135215</v>
       </c>
       <c r="L11" t="n">
-        <v>1374.82761136252</v>
+        <v>1150.009524135215</v>
       </c>
       <c r="M11" t="n">
-        <v>2048.629262475834</v>
+        <v>1150.009524135215</v>
       </c>
       <c r="N11" t="n">
-        <v>2722.430913589148</v>
+        <v>1923.907602950379</v>
       </c>
       <c r="O11" t="n">
-        <v>2722.430913589148</v>
+        <v>2769.052253101192</v>
       </c>
       <c r="P11" t="n">
-        <v>2722.430913589148</v>
+        <v>3477.331532259119</v>
       </c>
       <c r="Q11" t="n">
-        <v>2722.430913589148</v>
+        <v>3477.331532259119</v>
       </c>
       <c r="R11" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S11" t="n">
-        <v>2722.430913589148</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="T11" t="n">
-        <v>2501.505342633781</v>
+        <v>3269.595002058796</v>
       </c>
       <c r="U11" t="n">
-        <v>2501.505342633781</v>
+        <v>3011.240092655208</v>
       </c>
       <c r="V11" t="n">
-        <v>2501.505342633781</v>
+        <v>2653.750677781458</v>
       </c>
       <c r="W11" t="n">
-        <v>2501.505342633781</v>
+        <v>2257.359328081805</v>
       </c>
       <c r="X11" t="n">
-        <v>2138.518693205186</v>
+        <v>1845.639329249552</v>
       </c>
       <c r="Y11" t="n">
-        <v>1733.181423160076</v>
+        <v>1440.302059204443</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>621.5721093032382</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C12" t="n">
-        <v>504.066205820743</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D12" t="n">
-        <v>400.226247336028</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E12" t="n">
-        <v>295.5243136089652</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F12" t="n">
-        <v>201.8784832918694</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G12" t="n">
-        <v>107.8247115094734</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H12" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I12" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J12" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K12" t="n">
-        <v>515.5329466256644</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="L12" t="n">
-        <v>515.5329466256644</v>
+        <v>908.6965654257266</v>
       </c>
       <c r="M12" t="n">
-        <v>1189.334597738979</v>
+        <v>1798.431312543129</v>
       </c>
       <c r="N12" t="n">
-        <v>1863.136248852293</v>
+        <v>1798.431312543129</v>
       </c>
       <c r="O12" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="P12" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="Q12" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="R12" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S12" t="n">
-        <v>1781.812001413547</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T12" t="n">
-        <v>1639.932065711226</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U12" t="n">
-        <v>1455.163869630862</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V12" t="n">
-        <v>1250.190730770128</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W12" t="n">
-        <v>1053.669353603346</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X12" t="n">
-        <v>890.1920073700086</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y12" t="n">
-        <v>750.499118723301</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>894.0649040444501</v>
+        <v>1155.078879867057</v>
       </c>
       <c r="C13" t="n">
-        <v>722.0923409233661</v>
+        <v>983.1063167459732</v>
       </c>
       <c r="D13" t="n">
-        <v>558.7755680501368</v>
+        <v>819.7895438727439</v>
       </c>
       <c r="E13" t="n">
-        <v>392.5673622029904</v>
+        <v>653.5813380255975</v>
       </c>
       <c r="F13" t="n">
-        <v>220.7055879775508</v>
+        <v>481.7195638001579</v>
       </c>
       <c r="G13" t="n">
-        <v>54.44861827178296</v>
+        <v>315.4625940943901</v>
       </c>
       <c r="H13" t="n">
-        <v>54.44861827178296</v>
+        <v>171.6663256025445</v>
       </c>
       <c r="I13" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J13" t="n">
-        <v>111.939946495941</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K13" t="n">
-        <v>338.4675477017781</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L13" t="n">
-        <v>693.1568689961989</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M13" t="n">
-        <v>1084.34266396645</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N13" t="n">
-        <v>1461.834174842485</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O13" t="n">
-        <v>1817.262303522249</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P13" t="n">
-        <v>2107.86151544415</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q13" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R13" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="S13" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="T13" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="U13" t="n">
-        <v>1954.677197185216</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="V13" t="n">
-        <v>1827.989941448456</v>
+        <v>2089.003917271063</v>
       </c>
       <c r="W13" t="n">
-        <v>1553.137537620968</v>
+        <v>1814.151513443576</v>
       </c>
       <c r="X13" t="n">
-        <v>1310.573641066774</v>
+        <v>1571.587616889381</v>
       </c>
       <c r="Y13" t="n">
-        <v>1084.230872756516</v>
+        <v>1345.244848579123</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1605.072861833899</v>
+        <v>2105.957479589756</v>
       </c>
       <c r="C14" t="n">
-        <v>1605.072861833899</v>
+        <v>1679.056749603056</v>
       </c>
       <c r="D14" t="n">
-        <v>1181.780241018899</v>
+        <v>1255.764128788056</v>
       </c>
       <c r="E14" t="n">
-        <v>1181.780241018899</v>
+        <v>829.7871889359142</v>
       </c>
       <c r="F14" t="n">
-        <v>756.6560592082994</v>
+        <v>404.6630071253144</v>
       </c>
       <c r="G14" t="n">
-        <v>352.3169967977481</v>
+        <v>404.6630071253144</v>
       </c>
       <c r="H14" t="n">
-        <v>54.44861827178296</v>
+        <v>106.7946285993492</v>
       </c>
       <c r="I14" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J14" t="n">
-        <v>54.44861827178296</v>
+        <v>434.501216159716</v>
       </c>
       <c r="K14" t="n">
-        <v>728.2502693850971</v>
+        <v>1150.009524135215</v>
       </c>
       <c r="L14" t="n">
-        <v>1374.82761136252</v>
+        <v>1996.873840865691</v>
       </c>
       <c r="M14" t="n">
-        <v>2048.629262475834</v>
+        <v>1996.873840865691</v>
       </c>
       <c r="N14" t="n">
-        <v>2048.629262475834</v>
+        <v>2886.608587983094</v>
       </c>
       <c r="O14" t="n">
-        <v>2048.629262475834</v>
+        <v>2886.608587983094</v>
       </c>
       <c r="P14" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="Q14" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="R14" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S14" t="n">
-        <v>2722.430913589148</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="T14" t="n">
-        <v>2722.430913589148</v>
+        <v>3269.595002058796</v>
       </c>
       <c r="U14" t="n">
-        <v>2722.430913589148</v>
+        <v>3011.240092655208</v>
       </c>
       <c r="V14" t="n">
-        <v>2722.430913589148</v>
+        <v>2937.525842713539</v>
       </c>
       <c r="W14" t="n">
-        <v>2326.039563889495</v>
+        <v>2937.525842713539</v>
       </c>
       <c r="X14" t="n">
-        <v>1914.319565057242</v>
+        <v>2525.805843881286</v>
       </c>
       <c r="Y14" t="n">
-        <v>1914.319565057242</v>
+        <v>2525.805843881286</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>621.5721093032382</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C15" t="n">
-        <v>504.066205820743</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D15" t="n">
-        <v>400.226247336028</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E15" t="n">
-        <v>295.5243136089652</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F15" t="n">
-        <v>201.8784832918694</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G15" t="n">
-        <v>107.8247115094734</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H15" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I15" t="n">
-        <v>61.8952612336948</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J15" t="n">
-        <v>61.8952612336948</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K15" t="n">
-        <v>61.8952612336948</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="L15" t="n">
-        <v>515.5329466256644</v>
+        <v>908.6965654257266</v>
       </c>
       <c r="M15" t="n">
-        <v>515.5329466256644</v>
+        <v>1798.431312543129</v>
       </c>
       <c r="N15" t="n">
-        <v>1189.334597738979</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="O15" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="P15" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="Q15" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="R15" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S15" t="n">
-        <v>1781.812001413547</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T15" t="n">
-        <v>1639.932065711226</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U15" t="n">
-        <v>1455.163869630862</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V15" t="n">
-        <v>1250.190730770128</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W15" t="n">
-        <v>1053.669353603346</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X15" t="n">
-        <v>890.1920073700086</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y15" t="n">
-        <v>750.499118723301</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>937.6003173979655</v>
+        <v>295.9768228924842</v>
       </c>
       <c r="C16" t="n">
-        <v>937.6003173979655</v>
+        <v>124.0042597714002</v>
       </c>
       <c r="D16" t="n">
-        <v>802.3404048017065</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="E16" t="n">
-        <v>636.1321989545601</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="F16" t="n">
-        <v>464.2704247291205</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="G16" t="n">
-        <v>298.0134550233526</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H16" t="n">
-        <v>154.217186531507</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I16" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J16" t="n">
-        <v>111.939946495941</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K16" t="n">
-        <v>338.4675477017781</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L16" t="n">
-        <v>693.1568689961989</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M16" t="n">
-        <v>1084.34266396645</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N16" t="n">
-        <v>1461.834174842485</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O16" t="n">
-        <v>1817.262303522249</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P16" t="n">
-        <v>2107.86151544415</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q16" t="n">
-        <v>2234.861645684911</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R16" t="n">
-        <v>2187.823032372085</v>
+        <v>2205.272171443122</v>
       </c>
       <c r="S16" t="n">
-        <v>2017.687984891219</v>
+        <v>2035.137123962257</v>
       </c>
       <c r="T16" t="n">
-        <v>1774.348637117119</v>
+        <v>1791.797776188157</v>
       </c>
       <c r="U16" t="n">
-        <v>1494.164188617424</v>
+        <v>1511.613327688461</v>
       </c>
       <c r="V16" t="n">
-        <v>1212.452721225452</v>
+        <v>1229.90186029649</v>
       </c>
       <c r="W16" t="n">
-        <v>937.6003173979655</v>
+        <v>955.0494564690027</v>
       </c>
       <c r="X16" t="n">
-        <v>937.6003173979655</v>
+        <v>712.4855599148078</v>
       </c>
       <c r="Y16" t="n">
-        <v>937.6003173979655</v>
+        <v>486.1427916045499</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
@@ -5528,37 +5530,37 @@
         <v>3727.973228906364</v>
       </c>
       <c r="O17" t="n">
-        <v>4406.8563911335</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P17" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q17" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>669.4262044372838</v>
+        <v>3873.571530742372</v>
       </c>
       <c r="C18" t="n">
-        <v>551.9203009547886</v>
+        <v>3756.065627259877</v>
       </c>
       <c r="D18" t="n">
-        <v>448.0803424700736</v>
+        <v>3652.225668775162</v>
       </c>
       <c r="E18" t="n">
-        <v>343.3784087430108</v>
+        <v>3547.5237350481</v>
       </c>
       <c r="F18" t="n">
-        <v>249.7325784259149</v>
+        <v>3453.877904731004</v>
       </c>
       <c r="G18" t="n">
-        <v>155.678806643519</v>
+        <v>3359.824132948608</v>
       </c>
       <c r="H18" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="J18" t="n">
-        <v>138.8060889717951</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="K18" t="n">
-        <v>138.8060889717951</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="L18" t="n">
-        <v>138.8060889717951</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="M18" t="n">
-        <v>1194.79262694784</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="N18" t="n">
-        <v>1194.79262694784</v>
+        <v>4395.762986183788</v>
       </c>
       <c r="O18" t="n">
-        <v>1194.79262694784</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q18" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R18" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S18" t="n">
-        <v>1829.666096547593</v>
+        <v>5033.811422852681</v>
       </c>
       <c r="T18" t="n">
-        <v>1687.786160845271</v>
+        <v>4891.931487150359</v>
       </c>
       <c r="U18" t="n">
-        <v>1503.017964764908</v>
+        <v>4707.163291069996</v>
       </c>
       <c r="V18" t="n">
-        <v>1298.044825904174</v>
+        <v>4502.190152209263</v>
       </c>
       <c r="W18" t="n">
-        <v>1101.523448737391</v>
+        <v>4305.66877504248</v>
       </c>
       <c r="X18" t="n">
-        <v>938.0461025040541</v>
+        <v>4142.191428809143</v>
       </c>
       <c r="Y18" t="n">
-        <v>798.3532138573465</v>
+        <v>4002.498540162435</v>
       </c>
     </row>
     <row r="19">
@@ -5647,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>849.1301240093831</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C19" t="n">
-        <v>847.303066961835</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="D19" t="n">
-        <v>683.9862940886057</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="E19" t="n">
-        <v>683.9862940886057</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="F19" t="n">
-        <v>512.1245198631661</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G19" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5695,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T19" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U19" t="n">
-        <v>1822.202732251165</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V19" t="n">
-        <v>1540.491264859194</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W19" t="n">
-        <v>1265.638861031707</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X19" t="n">
-        <v>1265.638861031707</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y19" t="n">
-        <v>1039.296092721449</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D20" t="n">
         <v>1690.508147261616</v>
@@ -5738,49 +5740,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K20" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L20" t="n">
-        <v>2011.818868109901</v>
+        <v>1581.174581076927</v>
       </c>
       <c r="M20" t="n">
-        <v>2011.818868109901</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N20" t="n">
-        <v>2988.069926596602</v>
+        <v>3561.711740982686</v>
       </c>
       <c r="O20" t="n">
-        <v>3833.214576747414</v>
+        <v>4406.856391133499</v>
       </c>
       <c r="P20" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3873.571530742373</v>
+        <v>3873.571530742372</v>
       </c>
       <c r="C21" t="n">
-        <v>3756.065627259878</v>
+        <v>3756.065627259877</v>
       </c>
       <c r="D21" t="n">
-        <v>3652.225668775163</v>
+        <v>3652.225668775162</v>
       </c>
       <c r="E21" t="n">
-        <v>3547.523735048101</v>
+        <v>3547.5237350481</v>
       </c>
       <c r="F21" t="n">
-        <v>3453.877904731005</v>
+        <v>3453.877904731004</v>
       </c>
       <c r="G21" t="n">
-        <v>3359.824132948609</v>
+        <v>3359.824132948608</v>
       </c>
       <c r="H21" t="n">
-        <v>3306.448039710919</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="I21" t="n">
-        <v>3306.448039710919</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="J21" t="n">
-        <v>3306.448039710919</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="K21" t="n">
-        <v>3306.448039710919</v>
+        <v>3896.932966279257</v>
       </c>
       <c r="L21" t="n">
-        <v>3306.448039710919</v>
+        <v>3896.932966279257</v>
       </c>
       <c r="M21" t="n">
-        <v>4362.434577686964</v>
+        <v>3896.932966279257</v>
       </c>
       <c r="N21" t="n">
-        <v>5115.135670291427</v>
+        <v>3896.932966279257</v>
       </c>
       <c r="O21" t="n">
-        <v>5115.135670291427</v>
+        <v>3934.792476390149</v>
       </c>
       <c r="P21" t="n">
-        <v>5115.135670291427</v>
+        <v>4650.990193428647</v>
       </c>
       <c r="Q21" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R21" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S21" t="n">
-        <v>5033.811422852682</v>
+        <v>5033.811422852681</v>
       </c>
       <c r="T21" t="n">
-        <v>4891.93148715036</v>
+        <v>4891.931487150359</v>
       </c>
       <c r="U21" t="n">
-        <v>4707.163291069997</v>
+        <v>4707.163291069996</v>
       </c>
       <c r="V21" t="n">
-        <v>4502.190152209264</v>
+        <v>4502.190152209263</v>
       </c>
       <c r="W21" t="n">
-        <v>4305.668775042481</v>
+        <v>4305.66877504248</v>
       </c>
       <c r="X21" t="n">
-        <v>4142.191428809144</v>
+        <v>4142.191428809143</v>
       </c>
       <c r="Y21" t="n">
-        <v>4002.498540162436</v>
+        <v>4002.498540162435</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3774.338928650966</v>
+        <v>437.5920494001418</v>
       </c>
       <c r="C22" t="n">
-        <v>3602.366365529882</v>
+        <v>265.6194862790578</v>
       </c>
       <c r="D22" t="n">
-        <v>3439.049592656653</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="E22" t="n">
-        <v>3272.841386809506</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F22" t="n">
-        <v>3100.979612584067</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K22" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L22" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M22" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N22" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O22" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P22" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q22" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>5115.135670291427</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S22" t="n">
-        <v>5115.135670291427</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T22" t="n">
-        <v>5115.135670291427</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U22" t="n">
-        <v>4989.975433446943</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V22" t="n">
-        <v>4708.263966054971</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W22" t="n">
-        <v>4433.411562227484</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X22" t="n">
-        <v>4190.847665673289</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y22" t="n">
-        <v>3964.504897363031</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C23" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D23" t="n">
         <v>1690.508147261616</v>
@@ -5975,49 +5977,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G23" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H23" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I23" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K23" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L23" t="n">
-        <v>2110.0395278175</v>
+        <v>1007.532766690842</v>
       </c>
       <c r="M23" t="n">
-        <v>3114.325629236558</v>
+        <v>2011.8188681099</v>
       </c>
       <c r="N23" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O23" t="n">
-        <v>4935.721337874071</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P23" t="n">
-        <v>4935.721337874071</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R23" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S23" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T23" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U23" t="n">
         <v>4531.487895805612</v>
@@ -6075,7 +6077,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M24" t="n">
-        <v>821.6753975134684</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N24" t="n">
         <v>1910.990343986338</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1185.483835930065</v>
+        <v>4017.903765402535</v>
       </c>
       <c r="C25" t="n">
-        <v>1013.511272808982</v>
+        <v>3845.931202281451</v>
       </c>
       <c r="D25" t="n">
-        <v>850.1944999357522</v>
+        <v>3682.614429408221</v>
       </c>
       <c r="E25" t="n">
-        <v>683.9862940886057</v>
+        <v>3516.406223561075</v>
       </c>
       <c r="F25" t="n">
-        <v>512.1245198631661</v>
+        <v>3344.544449335635</v>
       </c>
       <c r="G25" t="n">
-        <v>345.8675501573982</v>
+        <v>3178.287479629867</v>
       </c>
       <c r="H25" t="n">
-        <v>202.0712816655526</v>
+        <v>3034.491211138022</v>
       </c>
       <c r="I25" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="J25" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102456</v>
       </c>
       <c r="K25" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308293</v>
       </c>
       <c r="L25" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602714</v>
       </c>
       <c r="M25" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572965</v>
       </c>
       <c r="N25" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449</v>
       </c>
       <c r="O25" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128764</v>
       </c>
       <c r="P25" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q25" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R25" t="n">
-        <v>2282.715740818957</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S25" t="n">
-        <v>2282.715740818957</v>
+        <v>4897.962009497734</v>
       </c>
       <c r="T25" t="n">
-        <v>2282.715740818957</v>
+        <v>4654.622661723634</v>
       </c>
       <c r="U25" t="n">
-        <v>2282.715740818957</v>
+        <v>4374.438213223939</v>
       </c>
       <c r="V25" t="n">
-        <v>2119.408873334071</v>
+        <v>4374.438213223939</v>
       </c>
       <c r="W25" t="n">
-        <v>1844.556469506584</v>
+        <v>4099.585809396452</v>
       </c>
       <c r="X25" t="n">
-        <v>1601.992572952389</v>
+        <v>4099.585809396452</v>
       </c>
       <c r="Y25" t="n">
-        <v>1375.649804642131</v>
+        <v>4099.585809396452</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D26" t="n">
         <v>1690.508147261616</v>
@@ -6212,13 +6214,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
@@ -6233,28 +6235,28 @@
         <v>1747.436069000604</v>
       </c>
       <c r="M26" t="n">
-        <v>2751.722170419663</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N26" t="n">
-        <v>3727.973228906364</v>
+        <v>3561.711740982686</v>
       </c>
       <c r="O26" t="n">
-        <v>4573.117879057176</v>
+        <v>4406.856391133499</v>
       </c>
       <c r="P26" t="n">
-        <v>4659.050190787244</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R26" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S26" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T26" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U26" t="n">
         <v>4531.487895805612</v>
@@ -6309,16 +6311,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L27" t="n">
-        <v>939.1015214887346</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M27" t="n">
-        <v>1194.79262694784</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N27" t="n">
-        <v>1194.79262694784</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="O27" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P27" t="n">
         <v>1910.990343986338</v>
@@ -6358,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>434.7678889587429</v>
+        <v>603.8002552472883</v>
       </c>
       <c r="C28" t="n">
-        <v>434.7678889587429</v>
+        <v>431.8276921262043</v>
       </c>
       <c r="D28" t="n">
-        <v>434.7678889587429</v>
+        <v>268.510919252975</v>
       </c>
       <c r="E28" t="n">
-        <v>268.5596831115964</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F28" t="n">
-        <v>268.5596831115964</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
         <v>102.3027134058285</v>
@@ -6382,10 +6384,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K28" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L28" t="n">
         <v>741.0109641302445</v>
@@ -6406,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T28" t="n">
-        <v>1930.588842254415</v>
+        <v>2099.621208542961</v>
       </c>
       <c r="U28" t="n">
-        <v>1650.404393754719</v>
+        <v>1819.436760043265</v>
       </c>
       <c r="V28" t="n">
-        <v>1368.692926362748</v>
+        <v>1537.725292651294</v>
       </c>
       <c r="W28" t="n">
-        <v>1093.840522535261</v>
+        <v>1262.872888823807</v>
       </c>
       <c r="X28" t="n">
-        <v>851.2766259810664</v>
+        <v>1020.308992269612</v>
       </c>
       <c r="Y28" t="n">
-        <v>624.9338576708085</v>
+        <v>793.966223959354</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D29" t="n">
         <v>1690.508147261616</v>
@@ -6449,49 +6451,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>366.6855125151251</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K29" t="n">
-        <v>1082.193820490624</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L29" t="n">
-        <v>2011.818868109901</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M29" t="n">
-        <v>2011.818868109901</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N29" t="n">
-        <v>2988.069926596602</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O29" t="n">
-        <v>3833.214576747414</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P29" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q29" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R29" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S29" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T29" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U29" t="n">
         <v>4531.487895805612</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>669.4262044372838</v>
+        <v>3873.571530742372</v>
       </c>
       <c r="C30" t="n">
-        <v>551.9203009547886</v>
+        <v>3756.065627259877</v>
       </c>
       <c r="D30" t="n">
-        <v>448.0803424700736</v>
+        <v>3652.225668775162</v>
       </c>
       <c r="E30" t="n">
-        <v>343.3784087430108</v>
+        <v>3547.5237350481</v>
       </c>
       <c r="F30" t="n">
-        <v>249.7325784259149</v>
+        <v>3453.877904731004</v>
       </c>
       <c r="G30" t="n">
-        <v>155.678806643519</v>
+        <v>3359.824132948608</v>
       </c>
       <c r="H30" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="M30" t="n">
-        <v>1158.289251381874</v>
+        <v>4025.820723818556</v>
       </c>
       <c r="N30" t="n">
-        <v>1158.289251381874</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="O30" t="n">
-        <v>1158.289251381874</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="P30" t="n">
-        <v>1874.486968420372</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q30" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R30" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S30" t="n">
-        <v>1829.666096547593</v>
+        <v>5033.811422852681</v>
       </c>
       <c r="T30" t="n">
-        <v>1687.786160845271</v>
+        <v>4891.931487150359</v>
       </c>
       <c r="U30" t="n">
-        <v>1503.017964764908</v>
+        <v>4707.163291069996</v>
       </c>
       <c r="V30" t="n">
-        <v>1298.044825904174</v>
+        <v>4502.190152209263</v>
       </c>
       <c r="W30" t="n">
-        <v>1101.523448737391</v>
+        <v>4305.66877504248</v>
       </c>
       <c r="X30" t="n">
-        <v>938.0461025040541</v>
+        <v>4142.191428809143</v>
       </c>
       <c r="Y30" t="n">
-        <v>798.3532138573465</v>
+        <v>4002.498540162435</v>
       </c>
     </row>
     <row r="31">
@@ -6595,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>683.9862940886057</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C31" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D31" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K31" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L31" t="n">
         <v>741.0109641302445</v>
@@ -6643,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T31" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U31" t="n">
-        <v>1542.018283751469</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V31" t="n">
-        <v>1260.306816359498</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W31" t="n">
-        <v>1152.892958953058</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X31" t="n">
-        <v>910.3290623988637</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y31" t="n">
-        <v>683.9862940886057</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="32">
@@ -6686,7 +6688,7 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G32" t="n">
         <v>435.0679631883225</v>
@@ -6707,25 +6709,25 @@
         <v>1747.436069000604</v>
       </c>
       <c r="M32" t="n">
-        <v>2467.904347614084</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N32" t="n">
-        <v>3444.155406100785</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O32" t="n">
-        <v>4289.300056251597</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P32" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q32" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R32" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S32" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T32" t="n">
         <v>4789.842805209199</v>
@@ -6783,16 +6785,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L33" t="n">
-        <v>939.1015214887346</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M33" t="n">
-        <v>1910.990343986338</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N33" t="n">
-        <v>1910.990343986338</v>
+        <v>1191.617659878699</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P33" t="n">
         <v>1910.990343986338</v>
@@ -6832,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1019.275630082919</v>
+        <v>1085.715267670341</v>
       </c>
       <c r="C34" t="n">
-        <v>847.303066961835</v>
+        <v>913.7427045492574</v>
       </c>
       <c r="D34" t="n">
-        <v>683.9862940886057</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="E34" t="n">
-        <v>683.9862940886057</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F34" t="n">
-        <v>512.1245198631661</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G34" t="n">
-        <v>345.8675501573982</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H34" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K34" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L34" t="n">
         <v>741.0109641302445</v>
@@ -6883,25 +6885,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2112.580693338092</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T34" t="n">
-        <v>1869.241345563992</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U34" t="n">
-        <v>1869.241345563992</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V34" t="n">
-        <v>1678.348263659437</v>
+        <v>2019.640305074347</v>
       </c>
       <c r="W34" t="n">
-        <v>1678.348263659437</v>
+        <v>1744.78790124686</v>
       </c>
       <c r="X34" t="n">
-        <v>1435.784367105243</v>
+        <v>1502.224004692665</v>
       </c>
       <c r="Y34" t="n">
-        <v>1209.441598794985</v>
+        <v>1275.881236382407</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D35" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E35" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
@@ -6950,37 +6952,37 @@
         <v>3727.973228906364</v>
       </c>
       <c r="O35" t="n">
-        <v>4573.117879057176</v>
+        <v>4406.856391133499</v>
       </c>
       <c r="P35" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V35" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W35" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X35" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y35" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>669.4262044372838</v>
+        <v>3873.571530742372</v>
       </c>
       <c r="C36" t="n">
-        <v>551.9203009547886</v>
+        <v>3756.065627259877</v>
       </c>
       <c r="D36" t="n">
-        <v>448.0803424700736</v>
+        <v>3652.225668775162</v>
       </c>
       <c r="E36" t="n">
-        <v>343.3784087430108</v>
+        <v>3547.5237350481</v>
       </c>
       <c r="F36" t="n">
-        <v>249.7325784259149</v>
+        <v>3453.877904731004</v>
       </c>
       <c r="G36" t="n">
-        <v>155.678806643519</v>
+        <v>3359.824132948608</v>
       </c>
       <c r="H36" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="J36" t="n">
-        <v>374.0002026854196</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="K36" t="n">
-        <v>374.0002026854196</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="L36" t="n">
-        <v>1210.799010768326</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="M36" t="n">
-        <v>1828.971033901635</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="N36" t="n">
-        <v>1828.971033901635</v>
+        <v>4395.762986183788</v>
       </c>
       <c r="O36" t="n">
-        <v>1828.971033901635</v>
+        <v>4398.937953252928</v>
       </c>
       <c r="P36" t="n">
-        <v>1828.971033901635</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q36" t="n">
-        <v>1828.971033901635</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R36" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S36" t="n">
-        <v>1829.666096547593</v>
+        <v>5033.811422852681</v>
       </c>
       <c r="T36" t="n">
-        <v>1687.786160845271</v>
+        <v>4891.931487150359</v>
       </c>
       <c r="U36" t="n">
-        <v>1503.017964764908</v>
+        <v>4707.163291069996</v>
       </c>
       <c r="V36" t="n">
-        <v>1298.044825904174</v>
+        <v>4502.190152209263</v>
       </c>
       <c r="W36" t="n">
-        <v>1101.523448737391</v>
+        <v>4305.66877504248</v>
       </c>
       <c r="X36" t="n">
-        <v>938.0461025040541</v>
+        <v>4142.191428809143</v>
       </c>
       <c r="Y36" t="n">
-        <v>798.3532138573465</v>
+        <v>4002.498540162435</v>
       </c>
     </row>
     <row r="37">
@@ -7072,16 +7074,16 @@
         <v>1185.483835930065</v>
       </c>
       <c r="C37" t="n">
-        <v>1013.511272808982</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D37" t="n">
-        <v>850.1944999357522</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E37" t="n">
-        <v>683.9862940886057</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F37" t="n">
-        <v>512.1245198631661</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G37" t="n">
         <v>345.8675501573982</v>
@@ -7093,10 +7095,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7117,22 +7119,22 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T37" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="U37" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="V37" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="W37" t="n">
-        <v>1790.689676197778</v>
+        <v>1837.728289510605</v>
       </c>
       <c r="X37" t="n">
         <v>1601.992572952389</v>
@@ -7148,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
@@ -7160,49 +7162,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K38" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N38" t="n">
-        <v>3727.973228906364</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O38" t="n">
-        <v>4573.117879057176</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P38" t="n">
-        <v>4997.579335409525</v>
+        <v>4639.71451561294</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409525</v>
+        <v>5095.799995117123</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
@@ -7214,7 +7216,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y38" t="n">
         <v>2960.549862354846</v>
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C39" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D39" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E39" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F39" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G39" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H39" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J39" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K39" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L39" t="n">
-        <v>4143.246847793825</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M39" t="n">
-        <v>4143.246847793825</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N39" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O39" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P39" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q39" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R39" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S39" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T39" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U39" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V39" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W39" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X39" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y39" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="40">
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>326.3817789554925</v>
+        <v>537.3606176598659</v>
       </c>
       <c r="C40" t="n">
-        <v>326.3817789554925</v>
+        <v>365.3880545387818</v>
       </c>
       <c r="D40" t="n">
-        <v>326.3817789554925</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="E40" t="n">
-        <v>326.3817789554925</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="F40" t="n">
-        <v>326.3817789554925</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="G40" t="n">
-        <v>326.3817789554925</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H40" t="n">
         <v>202.0712816655526</v>
@@ -7330,10 +7332,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7354,28 +7356,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2065.542080025265</v>
+        <v>2276.520918729638</v>
       </c>
       <c r="T40" t="n">
-        <v>1822.202732251165</v>
+        <v>2033.181570955538</v>
       </c>
       <c r="U40" t="n">
-        <v>1542.018283751469</v>
+        <v>1752.997122455842</v>
       </c>
       <c r="V40" t="n">
-        <v>1260.306816359498</v>
+        <v>1471.285655063871</v>
       </c>
       <c r="W40" t="n">
-        <v>985.454412532011</v>
+        <v>1196.433251236384</v>
       </c>
       <c r="X40" t="n">
-        <v>742.8905159778161</v>
+        <v>953.8693546821894</v>
       </c>
       <c r="Y40" t="n">
-        <v>516.5477476675582</v>
+        <v>727.5265863719314</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1755.743090736225</v>
+        <v>2177.531292217814</v>
       </c>
       <c r="C41" t="n">
-        <v>1328.842360749525</v>
+        <v>1750.630562231114</v>
       </c>
       <c r="D41" t="n">
-        <v>905.5497399345252</v>
+        <v>1327.337941416114</v>
       </c>
       <c r="E41" t="n">
-        <v>479.5728000823827</v>
+        <v>901.3610015639716</v>
       </c>
       <c r="F41" t="n">
-        <v>54.44861827178296</v>
+        <v>476.2368197533718</v>
       </c>
       <c r="G41" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="H41" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="I41" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="J41" t="n">
-        <v>417.0520770886785</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="K41" t="n">
-        <v>417.0520770886785</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="L41" t="n">
-        <v>417.0520770886785</v>
+        <v>961.6325044602232</v>
       </c>
       <c r="M41" t="n">
-        <v>1090.853728201993</v>
+        <v>1034.172855832976</v>
       </c>
       <c r="N41" t="n">
-        <v>1090.853728201993</v>
+        <v>1923.907602950379</v>
       </c>
       <c r="O41" t="n">
-        <v>1474.987448089748</v>
+        <v>2769.052253101191</v>
       </c>
       <c r="P41" t="n">
-        <v>2148.789099203062</v>
+        <v>3477.331532259118</v>
       </c>
       <c r="Q41" t="n">
-        <v>2604.874578707245</v>
+        <v>3477.331532259118</v>
       </c>
       <c r="R41" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="S41" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="T41" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="U41" t="n">
-        <v>2524.952504442228</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="V41" t="n">
-        <v>2167.463089568478</v>
+        <v>3414.436925386706</v>
       </c>
       <c r="W41" t="n">
-        <v>2167.463089568478</v>
+        <v>3414.436925386706</v>
       </c>
       <c r="X41" t="n">
-        <v>1755.743090736225</v>
+        <v>3002.716926554453</v>
       </c>
       <c r="Y41" t="n">
-        <v>1755.743090736225</v>
+        <v>2597.379656509343</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1480.866774040094</v>
+        <v>639.0212483742756</v>
       </c>
       <c r="C42" t="n">
-        <v>1363.360870557599</v>
+        <v>521.5153448917804</v>
       </c>
       <c r="D42" t="n">
-        <v>1259.520912072884</v>
+        <v>417.6753864070654</v>
       </c>
       <c r="E42" t="n">
-        <v>1154.818978345821</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F42" t="n">
-        <v>1061.173148028725</v>
+        <v>219.3276223629068</v>
       </c>
       <c r="G42" t="n">
-        <v>967.1193762463289</v>
+        <v>125.2738505805108</v>
       </c>
       <c r="H42" t="n">
-        <v>913.7432830086385</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="I42" t="n">
-        <v>913.7432830086385</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="J42" t="n">
-        <v>913.7432830086385</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="K42" t="n">
-        <v>913.7432830086385</v>
+        <v>662.38268391116</v>
       </c>
       <c r="L42" t="n">
-        <v>1374.82761136252</v>
+        <v>662.38268391116</v>
       </c>
       <c r="M42" t="n">
-        <v>2048.629262475834</v>
+        <v>662.38268391116</v>
       </c>
       <c r="N42" t="n">
-        <v>2722.430913589148</v>
+        <v>662.38268391116</v>
       </c>
       <c r="O42" t="n">
-        <v>2722.430913589148</v>
+        <v>1416.439911060551</v>
       </c>
       <c r="P42" t="n">
-        <v>2722.430913589148</v>
+        <v>1416.439911060551</v>
       </c>
       <c r="Q42" t="n">
-        <v>2722.430913589148</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="R42" t="n">
-        <v>2722.430913589148</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S42" t="n">
-        <v>2641.106666150403</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T42" t="n">
-        <v>2499.226730448081</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U42" t="n">
-        <v>2314.458534367718</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V42" t="n">
-        <v>2109.485395506984</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W42" t="n">
-        <v>1912.964018340201</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X42" t="n">
-        <v>1749.486672106864</v>
+        <v>907.641146441046</v>
       </c>
       <c r="Y42" t="n">
-        <v>1609.793783460156</v>
+        <v>767.9482577943384</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>894.0649040444501</v>
+        <v>1685.592518590384</v>
       </c>
       <c r="C43" t="n">
-        <v>722.0923409233661</v>
+        <v>1513.6199554693</v>
       </c>
       <c r="D43" t="n">
-        <v>558.7755680501368</v>
+        <v>1414.474839727893</v>
       </c>
       <c r="E43" t="n">
-        <v>392.5673622029904</v>
+        <v>1414.474839727893</v>
       </c>
       <c r="F43" t="n">
-        <v>220.7055879775508</v>
+        <v>1414.474839727893</v>
       </c>
       <c r="G43" t="n">
-        <v>54.44861827178296</v>
+        <v>1414.474839727893</v>
       </c>
       <c r="H43" t="n">
-        <v>54.44861827178296</v>
+        <v>1414.474839727893</v>
       </c>
       <c r="I43" t="n">
-        <v>54.44861827178296</v>
+        <v>1414.474839727893</v>
       </c>
       <c r="J43" t="n">
-        <v>111.939946495941</v>
+        <v>1471.966167952051</v>
       </c>
       <c r="K43" t="n">
-        <v>338.4675477017781</v>
+        <v>1698.493769157888</v>
       </c>
       <c r="L43" t="n">
-        <v>693.1568689961989</v>
+        <v>2053.183090452309</v>
       </c>
       <c r="M43" t="n">
-        <v>1084.34266396645</v>
+        <v>2444.36888542256</v>
       </c>
       <c r="N43" t="n">
-        <v>1461.834174842485</v>
+        <v>2821.860396298595</v>
       </c>
       <c r="O43" t="n">
-        <v>1817.262303522249</v>
+        <v>3177.288524978359</v>
       </c>
       <c r="P43" t="n">
-        <v>2107.86151544415</v>
+        <v>3467.887736900259</v>
       </c>
       <c r="Q43" t="n">
-        <v>2234.861645684911</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="R43" t="n">
-        <v>2187.823032372085</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="S43" t="n">
-        <v>2187.823032372085</v>
+        <v>3424.752819660156</v>
       </c>
       <c r="T43" t="n">
-        <v>2187.823032372085</v>
+        <v>3181.413471886056</v>
       </c>
       <c r="U43" t="n">
-        <v>2109.701408840427</v>
+        <v>2901.22902338636</v>
       </c>
       <c r="V43" t="n">
-        <v>1827.989941448456</v>
+        <v>2619.517555994389</v>
       </c>
       <c r="W43" t="n">
-        <v>1553.137537620968</v>
+        <v>2344.665152166902</v>
       </c>
       <c r="X43" t="n">
-        <v>1310.573641066774</v>
+        <v>2102.101255612708</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.230872756516</v>
+        <v>1875.75848730245</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1665.215719703719</v>
+        <v>1661.879739374708</v>
       </c>
       <c r="C44" t="n">
-        <v>1238.314989717019</v>
+        <v>1234.979009388008</v>
       </c>
       <c r="D44" t="n">
-        <v>1238.314989717019</v>
+        <v>1234.979009388008</v>
       </c>
       <c r="E44" t="n">
-        <v>812.3380498648767</v>
+        <v>809.0020695358658</v>
       </c>
       <c r="F44" t="n">
-        <v>387.2138680542769</v>
+        <v>809.0020695358658</v>
       </c>
       <c r="G44" t="n">
-        <v>387.2138680542769</v>
+        <v>404.6630071253144</v>
       </c>
       <c r="H44" t="n">
-        <v>89.34548952831176</v>
+        <v>106.7946285993492</v>
       </c>
       <c r="I44" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="J44" t="n">
-        <v>54.44861827178296</v>
+        <v>434.5012161597159</v>
       </c>
       <c r="K44" t="n">
-        <v>728.2502693850971</v>
+        <v>1150.009524135215</v>
       </c>
       <c r="L44" t="n">
-        <v>1402.051920498411</v>
+        <v>1423.232026479605</v>
       </c>
       <c r="M44" t="n">
-        <v>2075.853571611725</v>
+        <v>1423.232026479605</v>
       </c>
       <c r="N44" t="n">
-        <v>2075.853571611725</v>
+        <v>2312.966773597007</v>
       </c>
       <c r="O44" t="n">
-        <v>2722.430913589148</v>
+        <v>2312.966773597007</v>
       </c>
       <c r="P44" t="n">
-        <v>2722.430913589148</v>
+        <v>3021.246052754935</v>
       </c>
       <c r="Q44" t="n">
-        <v>2722.430913589148</v>
+        <v>3477.331532259118</v>
       </c>
       <c r="R44" t="n">
-        <v>2722.430913589148</v>
+        <v>3594.887867141021</v>
       </c>
       <c r="S44" t="n">
-        <v>2618.063619462288</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="T44" t="n">
-        <v>2397.138048506922</v>
+        <v>3269.595002058795</v>
       </c>
       <c r="U44" t="n">
-        <v>2397.138048506922</v>
+        <v>3011.240092655207</v>
       </c>
       <c r="V44" t="n">
-        <v>2397.138048506922</v>
+        <v>2653.750677781457</v>
       </c>
       <c r="W44" t="n">
-        <v>2397.138048506922</v>
+        <v>2257.359328081804</v>
       </c>
       <c r="X44" t="n">
-        <v>2397.138048506922</v>
+        <v>2067.217009419818</v>
       </c>
       <c r="Y44" t="n">
-        <v>1991.800778461812</v>
+        <v>1661.879739374708</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>621.5721093032382</v>
+        <v>639.0212483742756</v>
       </c>
       <c r="C45" t="n">
-        <v>504.066205820743</v>
+        <v>521.5153448917804</v>
       </c>
       <c r="D45" t="n">
-        <v>400.226247336028</v>
+        <v>417.6753864070654</v>
       </c>
       <c r="E45" t="n">
-        <v>295.5243136089652</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F45" t="n">
-        <v>201.8784832918694</v>
+        <v>219.3276223629068</v>
       </c>
       <c r="G45" t="n">
-        <v>107.8247115094734</v>
+        <v>125.2738505805108</v>
       </c>
       <c r="H45" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="I45" t="n">
-        <v>54.44861827178296</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="J45" t="n">
-        <v>54.44861827178296</v>
+        <v>343.5952466224115</v>
       </c>
       <c r="K45" t="n">
-        <v>54.44861827178296</v>
+        <v>343.5952466224115</v>
       </c>
       <c r="L45" t="n">
-        <v>54.44861827178296</v>
+        <v>1180.394054705318</v>
       </c>
       <c r="M45" t="n">
-        <v>515.5329466256644</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="N45" t="n">
-        <v>1189.334597738979</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="O45" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="P45" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="Q45" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="R45" t="n">
-        <v>1863.136248852293</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S45" t="n">
-        <v>1781.812001413547</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T45" t="n">
-        <v>1639.932065711226</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U45" t="n">
-        <v>1455.163869630862</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V45" t="n">
-        <v>1250.190730770128</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W45" t="n">
-        <v>1053.669353603346</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X45" t="n">
-        <v>890.1920073700086</v>
+        <v>907.641146441046</v>
       </c>
       <c r="Y45" t="n">
-        <v>750.499118723301</v>
+        <v>767.9482577943384</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1625.199008700256</v>
+        <v>415.732094689344</v>
       </c>
       <c r="C46" t="n">
-        <v>1453.226445579172</v>
+        <v>243.75953156826</v>
       </c>
       <c r="D46" t="n">
-        <v>1289.909672705943</v>
+        <v>243.75953156826</v>
       </c>
       <c r="E46" t="n">
-        <v>1123.701466858797</v>
+        <v>243.75953156826</v>
       </c>
       <c r="F46" t="n">
-        <v>951.8396926333571</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="G46" t="n">
-        <v>785.5827229275893</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="H46" t="n">
-        <v>641.7864544357437</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="I46" t="n">
-        <v>542.0178861760197</v>
+        <v>71.89775734282043</v>
       </c>
       <c r="J46" t="n">
-        <v>599.5092144001777</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K46" t="n">
-        <v>826.0368156060149</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L46" t="n">
-        <v>1180.726136900436</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M46" t="n">
-        <v>1571.911931870686</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N46" t="n">
-        <v>1949.403442746722</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O46" t="n">
-        <v>2304.831571426485</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P46" t="n">
-        <v>2595.430783348386</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q46" t="n">
-        <v>2722.430913589148</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R46" t="n">
-        <v>2722.430913589148</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="S46" t="n">
-        <v>2722.430913589148</v>
+        <v>2154.892395759116</v>
       </c>
       <c r="T46" t="n">
-        <v>2722.430913589148</v>
+        <v>1911.553047985016</v>
       </c>
       <c r="U46" t="n">
-        <v>2722.430913589148</v>
+        <v>1631.368599485321</v>
       </c>
       <c r="V46" t="n">
-        <v>2559.124046104262</v>
+        <v>1349.657132093349</v>
       </c>
       <c r="W46" t="n">
-        <v>2284.271642276775</v>
+        <v>1074.804728265862</v>
       </c>
       <c r="X46" t="n">
-        <v>2041.70774572258</v>
+        <v>832.2408317116676</v>
       </c>
       <c r="Y46" t="n">
-        <v>1815.364977412322</v>
+        <v>605.8980634014097</v>
       </c>
     </row>
   </sheetData>
@@ -7979,28 +7981,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>716.3723291920963</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
-        <v>111.9842925248821</v>
+        <v>937.0340092178784</v>
       </c>
       <c r="M2" t="n">
-        <v>718.0389912967188</v>
+        <v>936.1532296846873</v>
       </c>
       <c r="N2" t="n">
-        <v>37.27962283444602</v>
+        <v>936.0015896197016</v>
       </c>
       <c r="O2" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>718.1830902075183</v>
+        <v>439.2929263979174</v>
       </c>
       <c r="Q2" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8064,19 +8066,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>488.8385263243295</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>703.7796181195092</v>
+        <v>657.8632399032653</v>
       </c>
       <c r="P3" t="n">
-        <v>702.3785696021157</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
         <v>23.67291939414415</v>
@@ -8216,28 +8218,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L5" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>718.0389912967188</v>
+        <v>936.1532296846873</v>
       </c>
       <c r="N5" t="n">
-        <v>717.8873512317331</v>
+        <v>175.0140989470782</v>
       </c>
       <c r="O5" t="n">
-        <v>717.9986877533111</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P5" t="n">
-        <v>324.4176680329862</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8298,25 +8300,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>703.1228151115166</v>
+        <v>399.0687195582944</v>
       </c>
       <c r="M6" t="n">
-        <v>23.09678051232798</v>
+        <v>921.8187472975835</v>
       </c>
       <c r="N6" t="n">
-        <v>701.9507566108286</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>488.9136355342238</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8453,22 +8455,22 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>716.3723291920963</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L8" t="n">
-        <v>718.9197708299099</v>
+        <v>937.0340092178784</v>
       </c>
       <c r="M8" t="n">
-        <v>324.2735691221864</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>717.8873512317331</v>
+        <v>39.01665978360172</v>
       </c>
       <c r="O8" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q8" t="n">
         <v>36.12467460459804</v>
@@ -8529,7 +8531,7 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
         <v>22.39923383333334</v>
@@ -8538,22 +8540,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>703.704508909615</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>479.5629124478544</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>703.7796181195092</v>
+        <v>761.8854970109148</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q9" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8690,28 +8692,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>716.3723291920963</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>325.1543486553775</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M11" t="n">
-        <v>718.0389912967188</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
-        <v>717.8873512317331</v>
+        <v>818.9948539608747</v>
       </c>
       <c r="O11" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R11" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,19 +8771,19 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>488.1409796453348</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M12" t="n">
-        <v>703.704508909615</v>
+        <v>921.8187472975835</v>
       </c>
       <c r="N12" t="n">
-        <v>701.9507566108286</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>23.17188972222222</v>
+        <v>106.1558042476775</v>
       </c>
       <c r="P12" t="n">
         <v>21.77084120482866</v>
@@ -8924,25 +8926,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>716.3723291920963</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>691.4204686724437</v>
+        <v>893.7305441805787</v>
       </c>
       <c r="M14" t="n">
-        <v>718.0389912967188</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N14" t="n">
-        <v>37.27962283444602</v>
+        <v>936.0015896197016</v>
       </c>
       <c r="O14" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P14" t="n">
-        <v>718.1830902075183</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
         <v>36.12467460459804</v>
@@ -9000,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
         <v>20.61111433333334</v>
@@ -9009,16 +9011,16 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
-        <v>480.7349709485423</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M15" t="n">
-        <v>23.09678051232798</v>
+        <v>921.8187472975835</v>
       </c>
       <c r="N15" t="n">
-        <v>701.9507566108286</v>
+        <v>104.326942738997</v>
       </c>
       <c r="O15" t="n">
-        <v>703.7796181195092</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
         <v>21.77084120482866</v>
@@ -9176,10 +9178,10 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O17" t="n">
-        <v>723.1315272622221</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q17" t="n">
         <v>36.12467460459804</v>
@@ -9240,7 +9242,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J18" t="n">
-        <v>57.48321086461273</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K18" t="n">
         <v>22.39923383333334</v>
@@ -9249,16 +9251,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O18" t="n">
-        <v>23.17188972222222</v>
+        <v>749.8109645784228</v>
       </c>
       <c r="P18" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
         <v>22.7470382889785</v>
@@ -9398,16 +9400,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
-        <v>878.1144544646206</v>
+        <v>809.386345155451</v>
       </c>
       <c r="M20" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N20" t="n">
         <v>1023.391803124043</v>
@@ -9419,10 +9421,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R20" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,25 +9482,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>781.6471621574439</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>23.17188972222222</v>
+        <v>61.41381912716336</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
         <v>23.67291939414415</v>
@@ -9635,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L23" t="n">
-        <v>977.3272420480539</v>
+        <v>229.9501690078898</v>
       </c>
       <c r="M23" t="n">
         <v>1051.861668373228</v>
@@ -9653,13 +9655,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>217.3512730059682</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9723,10 +9725,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>749.7358553685299</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
@@ -9881,7 +9883,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
-        <v>1051.861668373228</v>
+        <v>883.920771480625</v>
       </c>
       <c r="N26" t="n">
         <v>1023.391803124043</v>
@@ -9890,10 +9892,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>124.3756766890881</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
         <v>35.03264989479647</v>
@@ -9957,19 +9959,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L27" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>281.3706244104145</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N27" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>23.17188972222222</v>
+        <v>783.4760236661258</v>
       </c>
       <c r="P27" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
         <v>22.7470382889785</v>
@@ -10109,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>296.4732919192194</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
@@ -10118,7 +10120,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N29" t="n">
         <v>1023.391803124043</v>
@@ -10127,13 +10129,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q29" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10197,19 +10199,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>1089.749849175</v>
+        <v>749.7358553685286</v>
       </c>
       <c r="N30" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q30" t="n">
-        <v>59.6191348202578</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R30" t="n">
         <v>23.67291939414415</v>
@@ -10355,7 +10357,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>765.1769988726438</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N32" t="n">
         <v>1023.391803124043</v>
@@ -10364,13 +10366,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q32" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10431,19 +10433,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>1004.802661823039</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O33" t="n">
-        <v>23.17188972222222</v>
+        <v>26.37892716579976</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q33" t="n">
         <v>22.7470382889785</v>
@@ -10598,16 +10600,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O35" t="n">
-        <v>891.0724241548241</v>
+        <v>723.1315272622212</v>
       </c>
       <c r="P35" t="n">
-        <v>466.324307620685</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R35" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,31 +10664,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J36" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K36" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L36" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>647.5129654954686</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O36" t="n">
-        <v>23.17188972222222</v>
+        <v>26.37892716579861</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q36" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R36" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
@@ -10829,7 +10831,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
         <v>1023.391803124043</v>
@@ -10838,13 +10840,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>466.324307620685</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>153.7764225027789</v>
+        <v>54.56363491934506</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10905,13 +10907,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L39" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N39" t="n">
-        <v>1003.048909524251</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O39" t="n">
         <v>23.17188972222222</v>
@@ -11057,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K41" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L41" t="n">
-        <v>38.31204243262292</v>
+        <v>937.0340092178782</v>
       </c>
       <c r="M41" t="n">
-        <v>718.0389912967188</v>
+        <v>110.7043450941313</v>
       </c>
       <c r="N41" t="n">
-        <v>37.27962283444602</v>
+        <v>936.0015896197013</v>
       </c>
       <c r="O41" t="n">
-        <v>425.4048178285041</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>718.1830902075183</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R41" t="n">
         <v>153.7764225027789</v>
@@ -11139,25 +11141,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
-        <v>488.2568325262308</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>703.704508909615</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>701.9507566108286</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>23.17188972222222</v>
+        <v>784.8458565397888</v>
       </c>
       <c r="P42" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
         <v>23.67291939414415</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>716.3723291920963</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>718.9197708299099</v>
+        <v>314.2943680330164</v>
       </c>
       <c r="M44" t="n">
-        <v>718.0389912967188</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>37.27962283444602</v>
+        <v>936.0015896197013</v>
       </c>
       <c r="O44" t="n">
-        <v>690.4993855958451</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,22 +11375,22 @@
         <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M45" t="n">
-        <v>488.8385263243295</v>
+        <v>730.3607534598156</v>
       </c>
       <c r="N45" t="n">
-        <v>701.9507566108286</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>703.7796181195092</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
         <v>21.77084120482866</v>
@@ -22544,19 +22546,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>362.7598622472817</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>141.9347038058938</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22598,7 +22600,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
         <v>255.7713603095518</v>
@@ -22708,16 +22710,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>110.098167740203</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>153.4739695386591</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
         <v>142.3583058069271</v>
@@ -22750,13 +22752,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -22787,22 +22789,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22832,16 +22834,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>119.1710011664464</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
         <v>392.4274362026566</v>
@@ -22850,7 +22852,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>150.7911649478958</v>
       </c>
     </row>
     <row r="6">
@@ -22942,22 +22944,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>19.2909134898868</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -22987,19 +22989,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -23027,10 +23029,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400.2956717864458</v>
@@ -23072,22 +23074,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>21.88731576934353</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>253.3277180470725</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -23176,22 +23178,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>19.29091348988678</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -23224,19 +23226,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -23255,22 +23257,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>324.3382095529123</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
         <v>294.8896947407055</v>
@@ -23306,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>48.24601590962095</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23431,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,10 +23472,10 @@
         <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>153.4739695386589</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23492,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>109.4956444575047</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>280.9374132827602</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>27.77629167420068</v>
+        <v>110.098167740203</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23716,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>168.4440510128006</v>
+        <v>66.44073542471746</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>110.0981677402028</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,13 +24135,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
         <v>142.3583058069271</v>
@@ -24172,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>153.473969538659</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>107.3990854709672</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24409,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>117.2205539080143</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -24601,10 +24603,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24613,7 +24615,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
         <v>142.3583058069271</v>
@@ -24646,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>107.3022489032176</v>
+        <v>228.0760643491791</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24835,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>71.98949189919249</v>
       </c>
       <c r="D31" t="n">
         <v>161.683605144497</v>
@@ -24850,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24898,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>165.764160956837</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25081,7 +25083,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,19 +25125,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>89.91020163254268</v>
+        <v>18.44967133088738</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25375,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>53.32812537571792</v>
+        <v>6.759898196019378</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25549,10 +25551,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>164.546123788675</v>
@@ -25564,7 +25566,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>19.29091348988663</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>162.300823137631</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25640,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>294.8896947407055</v>
@@ -25682,10 +25684,10 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>60.26773525410098</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>175.2680883882408</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
@@ -25694,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25789,16 +25791,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>63.52994056050414</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
         <v>142.3583058069271</v>
@@ -25831,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>200.0421967183575</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>92.3306724781026</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25874,10 +25876,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25919,16 +25921,16 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>219.3619033685637</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26026,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,16 +26073,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>117.2205539080138</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>452696.1499238694</v>
+        <v>533549.792898687</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>452696.1499238693</v>
+        <v>533549.7928986868</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>452696.1499238693</v>
+        <v>533549.792898687</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>452696.1499238693</v>
+        <v>533549.792898687</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>452696.1499238694</v>
+        <v>533549.792898687</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>674436.4837649369</v>
+        <v>674436.4837649368</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>674436.4837649367</v>
+        <v>674436.4837649368</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>674436.4837649368</v>
+        <v>674436.4837649369</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>452696.1499238693</v>
+        <v>533549.7928986868</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>452696.1499238694</v>
+        <v>533549.7928986867</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>207485.7353817734</v>
+        <v>244543.6550785647</v>
       </c>
       <c r="C2" t="n">
-        <v>207485.7353817734</v>
+        <v>244543.6550785648</v>
       </c>
       <c r="D2" t="n">
-        <v>207485.7353817734</v>
+        <v>244543.6550785648</v>
       </c>
       <c r="E2" t="n">
-        <v>207485.7353817733</v>
+        <v>244543.6550785647</v>
       </c>
       <c r="F2" t="n">
-        <v>207485.7353817734</v>
+        <v>244543.6550785647</v>
       </c>
       <c r="G2" t="n">
         <v>309116.7217255959</v>
       </c>
       <c r="H2" t="n">
-        <v>309116.7217255961</v>
+        <v>309116.7217255959</v>
       </c>
       <c r="I2" t="n">
         <v>309116.7217255959</v>
       </c>
       <c r="J2" t="n">
-        <v>309116.7217255958</v>
+        <v>309116.721725596</v>
       </c>
       <c r="K2" t="n">
-        <v>309116.7217255961</v>
+        <v>309116.7217255959</v>
       </c>
       <c r="L2" t="n">
-        <v>309116.7217255962</v>
+        <v>309116.7217255959</v>
       </c>
       <c r="M2" t="n">
-        <v>309116.7217255958</v>
+        <v>309116.7217255959</v>
       </c>
       <c r="N2" t="n">
-        <v>309116.7217255958</v>
+        <v>309116.7217255959</v>
       </c>
       <c r="O2" t="n">
-        <v>207485.7353817733</v>
+        <v>244543.6550785646</v>
       </c>
       <c r="P2" t="n">
-        <v>207485.7353817734</v>
+        <v>244543.6550785646</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>228087.303763684</v>
+        <v>301182.4016749752</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>163951.1208101861</v>
+        <v>104169.2797816197</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>178076.9284887798</v>
+        <v>235145.2102775614</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>517.2570589421073</v>
+        <v>620.3761832340386</v>
       </c>
       <c r="C4" t="n">
-        <v>517.2570589421075</v>
+        <v>620.3761832340385</v>
       </c>
       <c r="D4" t="n">
-        <v>517.2570589421074</v>
+        <v>620.3761832340388</v>
       </c>
       <c r="E4" t="n">
-        <v>517.2570589421075</v>
+        <v>620.3761832340386</v>
       </c>
       <c r="F4" t="n">
-        <v>517.2570589421074</v>
+        <v>620.3761832340386</v>
       </c>
       <c r="G4" t="n">
-        <v>800.0602599433671</v>
+        <v>800.060259943367</v>
       </c>
       <c r="H4" t="n">
         <v>800.060259943367</v>
       </c>
       <c r="I4" t="n">
-        <v>800.0602599433672</v>
+        <v>800.060259943367</v>
       </c>
       <c r="J4" t="n">
-        <v>800.0602599433671</v>
+        <v>800.060259943367</v>
       </c>
       <c r="K4" t="n">
-        <v>800.0602599433671</v>
+        <v>800.0602599433669</v>
       </c>
       <c r="L4" t="n">
         <v>800.0602599433671</v>
       </c>
       <c r="M4" t="n">
-        <v>800.0602599433671</v>
+        <v>800.060259943367</v>
       </c>
       <c r="N4" t="n">
-        <v>800.0602599433671</v>
+        <v>800.060259943367</v>
       </c>
       <c r="O4" t="n">
-        <v>517.2570589421074</v>
+        <v>620.3761832340385</v>
       </c>
       <c r="P4" t="n">
-        <v>517.2570589421074</v>
+        <v>620.3761832340385</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75008.54988655505</v>
+        <v>88269.89558054353</v>
       </c>
       <c r="C5" t="n">
-        <v>75008.54988655505</v>
+        <v>88269.89558054353</v>
       </c>
       <c r="D5" t="n">
-        <v>75008.54988655505</v>
+        <v>88269.89558054353</v>
       </c>
       <c r="E5" t="n">
-        <v>41380.94988655505</v>
+        <v>54642.29558054353</v>
       </c>
       <c r="F5" t="n">
-        <v>41380.94988655505</v>
+        <v>54642.29558054353</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="I5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="J5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="K5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="L5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="O5" t="n">
-        <v>41380.94988655505</v>
+        <v>54642.29558054352</v>
       </c>
       <c r="P5" t="n">
-        <v>41380.94988655505</v>
+        <v>54642.29558054352</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-96127.37532740775</v>
+        <v>-145529.0183601881</v>
       </c>
       <c r="C6" t="n">
-        <v>131959.9284362762</v>
+        <v>155653.3833147872</v>
       </c>
       <c r="D6" t="n">
-        <v>131959.9284362762</v>
+        <v>155653.3833147872</v>
       </c>
       <c r="E6" t="n">
-        <v>165587.5284362762</v>
+        <v>189280.9833147871</v>
       </c>
       <c r="F6" t="n">
-        <v>165587.5284362762</v>
+        <v>189280.9833147871</v>
       </c>
       <c r="G6" t="n">
-        <v>66615.47846703684</v>
+        <v>126397.3194956032</v>
       </c>
       <c r="H6" t="n">
-        <v>230566.5992772231</v>
+        <v>230566.5992772229</v>
       </c>
       <c r="I6" t="n">
         <v>230566.5992772229</v>
       </c>
       <c r="J6" t="n">
-        <v>52489.67078844299</v>
+        <v>-4578.611000338424</v>
       </c>
       <c r="K6" t="n">
-        <v>230566.599277223</v>
+        <v>230566.5992772229</v>
       </c>
       <c r="L6" t="n">
-        <v>230566.5992772231</v>
+        <v>230566.5992772229</v>
       </c>
       <c r="M6" t="n">
-        <v>230566.5992772228</v>
+        <v>230566.5992772229</v>
       </c>
       <c r="N6" t="n">
         <v>230566.5992772228</v>
       </c>
       <c r="O6" t="n">
-        <v>165587.5284362762</v>
+        <v>189280.983314787</v>
       </c>
       <c r="P6" t="n">
-        <v>165587.5284362763</v>
+        <v>189280.983314787</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852555</v>
       </c>
       <c r="C4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852555</v>
       </c>
       <c r="D4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852555</v>
       </c>
       <c r="E4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852555</v>
       </c>
       <c r="F4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852555</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852553</v>
       </c>
       <c r="P4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852553</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852555</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>598.1761891755698</v>
+        <v>380.0619507876012</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>680.6077283972871</v>
+        <v>898.7219667852555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>598.1761891755698</v>
+        <v>380.0619507876012</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34699,28 +34701,28 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>73.6722500922592</v>
+        <v>898.7219667852555</v>
       </c>
       <c r="M2" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852555</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>898.7219667852555</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>680.607728397287</v>
+        <v>401.7175645876861</v>
       </c>
       <c r="Q2" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34784,19 +34786,19 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7417458120015</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>680.607728397287</v>
+        <v>634.691350181043</v>
       </c>
       <c r="P3" t="n">
-        <v>680.607728397287</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,28 +34938,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852555</v>
       </c>
       <c r="N5" t="n">
-        <v>680.607728397287</v>
+        <v>137.7344761126321</v>
       </c>
       <c r="O5" t="n">
-        <v>680.607728397287</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P5" t="n">
-        <v>286.8423062227549</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35018,25 +35020,25 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>680.607728397287</v>
+        <v>376.5536328440649</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>898.7219667852555</v>
       </c>
       <c r="N6" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>465.7417458120016</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35173,22 +35175,22 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>680.607728397287</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L8" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852555</v>
       </c>
       <c r="M8" t="n">
-        <v>286.8423062227546</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>680.607728397287</v>
+        <v>1.737036949155693</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35249,7 +35251,7 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35258,22 +35260,22 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>458.2198842343128</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>680.607728397287</v>
+        <v>738.7136072886926</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35410,28 +35412,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>680.607728397287</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>286.8423062227546</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>680.607728397287</v>
+        <v>781.7152311264286</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,19 +35491,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>465.7417458120015</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M12" t="n">
-        <v>680.607728397287</v>
+        <v>898.7219667852555</v>
       </c>
       <c r="N12" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>82.98391452545532</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35644,25 +35646,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>680.607728397287</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>653.1084262398208</v>
+        <v>855.4185017479558</v>
       </c>
       <c r="M14" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>898.7219667852555</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>680.607728397287</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35720,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35729,16 +35731,16 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>458.2198842343128</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>898.7219667852555</v>
       </c>
       <c r="N15" t="n">
-        <v>680.607728397287</v>
+        <v>82.98391452545532</v>
       </c>
       <c r="O15" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35896,10 +35898,10 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O17" t="n">
-        <v>685.740567906198</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35960,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>36.87209653127939</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -35969,16 +35971,16 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>726.6390748562006</v>
       </c>
       <c r="P18" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36118,16 +36120,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
-        <v>839.8024120319977</v>
+        <v>771.0743027228281</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N20" t="n">
         <v>986.1121802895968</v>
@@ -36139,10 +36141,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>760.3041339439022</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>38.24192940494115</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,13 +36357,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L23" t="n">
-        <v>939.015199615431</v>
+        <v>191.6381265752669</v>
       </c>
       <c r="M23" t="n">
         <v>1014.430405473796</v>
@@ -36373,13 +36375,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>181.2265984013702</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,10 +36445,10 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>726.6390748562019</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36601,7 +36603,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
-        <v>1014.430405473796</v>
+        <v>846.4895085811933</v>
       </c>
       <c r="N26" t="n">
         <v>986.1121802895968</v>
@@ -36610,10 +36612,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>86.80031487885682</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36677,19 +36679,19 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>258.2738438980865</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="P27" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36829,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>267.0533324336329</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
@@ -36838,7 +36840,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N29" t="n">
         <v>986.1121802895968</v>
@@ -36847,13 +36849,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q29" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,19 +36919,19 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1066.653068662672</v>
+        <v>726.6390748562006</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>36.8720965312793</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37075,7 +37077,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>727.745735973212</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N32" t="n">
         <v>986.1121802895968</v>
@@ -37084,13 +37086,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,19 +37153,19 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>981.7058813107108</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>3.207037443577533</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37318,16 +37320,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O35" t="n">
-        <v>853.6814647988001</v>
+        <v>685.740567906197</v>
       </c>
       <c r="P35" t="n">
-        <v>428.7489458104537</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>624.4161849831406</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>3.207037443576385</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
@@ -37549,7 +37551,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>986.1121802895968</v>
@@ -37558,13 +37560,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>428.7489458104537</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>118.7437726079824</v>
+        <v>19.53098502454859</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,13 +37627,13 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N39" t="n">
-        <v>981.7058813107097</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37777,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>898.7219667852553</v>
       </c>
       <c r="M41" t="n">
-        <v>680.607728397287</v>
+        <v>73.27308219469953</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>898.7219667852553</v>
       </c>
       <c r="O41" t="n">
-        <v>388.01385847248</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>680.607728397287</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>118.7437726079824</v>
@@ -37859,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
-        <v>465.7417458120012</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>761.6739668175666</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>680.607728397287</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>680.607728397287</v>
+        <v>275.9823256003935</v>
       </c>
       <c r="M44" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>898.7219667852553</v>
       </c>
       <c r="O44" t="n">
-        <v>653.1084262398209</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,22 +38095,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7417458120015</v>
+        <v>707.2639729474876</v>
       </c>
       <c r="N45" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_22.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1172899.481698895</v>
+        <v>1170981.764040332</v>
       </c>
     </row>
     <row r="7">
@@ -670,16 +670,16 @@
         <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>278.9382361866</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>83.19104673497071</v>
       </c>
       <c r="W2" t="n">
         <v>392.4274362026566</v>
@@ -727,7 +727,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -819,22 +819,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>74.29027648425217</v>
       </c>
       <c r="D4" t="n">
-        <v>51.58543740429398</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>168.4336970060565</v>
@@ -873,7 +873,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>278.8943527180514</v>
@@ -910,10 +910,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>34.5479025439635</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>200.4745827253857</v>
       </c>
       <c r="Y5" t="n">
-        <v>250.4927323967627</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -1056,7 +1056,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1065,16 +1065,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>123.0673923170403</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>168.4336970060565</v>
@@ -1119,10 +1119,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>227.6337063079054</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1135,25 +1135,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>262.9518446861464</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>233.8840445402083</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
@@ -1201,7 +1201,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>168.9733955350582</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1302,16 +1302,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T10" t="n">
         <v>240.905954296359</v>
@@ -1378,19 +1378,19 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>97.37896090070868</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>48.643144191007</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,13 +1423,13 @@
         <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
@@ -1533,22 +1533,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>205.3931121155061</v>
       </c>
       <c r="V13" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1609,13 +1609,13 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>396.0192604001215</v>
       </c>
       <c r="D14" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>420.8729399924937</v>
@@ -1660,22 +1660,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>72.97710744225284</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1770,13 +1770,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>51.58543740429398</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T16" t="n">
         <v>240.905954296359</v>
@@ -1864,7 +1864,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2004,7 +2004,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>103.8121020651557</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,10 +2013,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>78.16614128474215</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>80.8652235539778</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>168.4336970060565</v>
@@ -2535,16 +2535,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2718,13 +2718,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T28" t="n">
-        <v>12.82988994717986</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
         <v>277.3826040146988</v>
@@ -2952,7 +2952,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>98.26334559068066</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -3012,7 +3012,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>200.1143878900198</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
@@ -3192,19 +3192,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,16 +3237,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>260.444681387164</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
         <v>272.1038797892121</v>
@@ -3286,7 +3286,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I35" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3429,22 +3429,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,22 +3474,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>233.3783593926335</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
         <v>224.0793406271554</v>
@@ -3523,7 +3523,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I38" t="n">
-        <v>34.54790254396345</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3666,13 +3666,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>6.13287386842549</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
@@ -3799,13 +3799,13 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>178.6464323367722</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>193.8217949780461</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -3903,13 +3903,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>98.15366458399285</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>43.70950697100926</v>
       </c>
       <c r="V43" t="n">
         <v>278.8943527180514</v>
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>178.6464323367727</v>
       </c>
       <c r="X44" t="n">
-        <v>188.2408954753665</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2366.928154317587</v>
+        <v>1773.192229807262</v>
       </c>
       <c r="C2" t="n">
-        <v>1940.027424330887</v>
+        <v>1346.291499820562</v>
       </c>
       <c r="D2" t="n">
-        <v>1516.734803515887</v>
+        <v>922.9988790055627</v>
       </c>
       <c r="E2" t="n">
-        <v>1090.757863663745</v>
+        <v>497.0219391534202</v>
       </c>
       <c r="F2" t="n">
-        <v>809.0020695358658</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="G2" t="n">
-        <v>404.6630071253144</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H2" t="n">
-        <v>106.7946285993492</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I2" t="n">
         <v>71.89775734282044</v>
@@ -4333,22 +4333,22 @@
         <v>71.89775734282044</v>
       </c>
       <c r="K2" t="n">
-        <v>71.89775734282044</v>
+        <v>787.4060653183195</v>
       </c>
       <c r="L2" t="n">
-        <v>961.6325044602235</v>
+        <v>970.2737227554036</v>
       </c>
       <c r="M2" t="n">
-        <v>1851.367251577627</v>
+        <v>1860.008469872806</v>
       </c>
       <c r="N2" t="n">
-        <v>2741.10199869503</v>
+        <v>2749.743216990209</v>
       </c>
       <c r="O2" t="n">
-        <v>2741.10199869503</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="P2" t="n">
-        <v>3138.802387636839</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="Q2" t="n">
         <v>3594.887867141022</v>
@@ -4357,25 +4357,25 @@
         <v>3594.887867141022</v>
       </c>
       <c r="S2" t="n">
-        <v>3594.887867141022</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="T2" t="n">
-        <v>3594.887867141022</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="U2" t="n">
-        <v>3594.887867141022</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="V2" t="n">
-        <v>3594.887867141022</v>
+        <v>3406.489212675808</v>
       </c>
       <c r="W2" t="n">
-        <v>3198.496517441369</v>
+        <v>3010.097862976154</v>
       </c>
       <c r="X2" t="n">
-        <v>2786.776518609116</v>
+        <v>2598.377864143902</v>
       </c>
       <c r="Y2" t="n">
-        <v>2786.776518609116</v>
+        <v>2193.040594098792</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2353.323727591968</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C3" t="n">
-        <v>2235.817824109472</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D3" t="n">
-        <v>2131.977865624758</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E3" t="n">
-        <v>2027.275931897695</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F3" t="n">
-        <v>1933.630101580599</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G3" t="n">
-        <v>1839.576329798203</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H3" t="n">
-        <v>1786.200236560512</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I3" t="n">
-        <v>1786.200236560512</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J3" t="n">
-        <v>1786.200236560512</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K3" t="n">
-        <v>1786.200236560512</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="L3" t="n">
-        <v>1786.200236560512</v>
+        <v>101.1158936885245</v>
       </c>
       <c r="M3" t="n">
-        <v>1786.200236560512</v>
+        <v>990.8506408059274</v>
       </c>
       <c r="N3" t="n">
-        <v>1786.200236560512</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="O3" t="n">
-        <v>2414.544673239745</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="P3" t="n">
-        <v>3130.742390278243</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="Q3" t="n">
-        <v>3594.887867141022</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="R3" t="n">
-        <v>3594.887867141022</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S3" t="n">
-        <v>3513.563619702277</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T3" t="n">
-        <v>3371.683683999955</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U3" t="n">
-        <v>3186.915487919592</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V3" t="n">
-        <v>2981.942349058858</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W3" t="n">
-        <v>2785.420971892075</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X3" t="n">
-        <v>2621.943625658738</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y3" t="n">
-        <v>2482.250737012031</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="4">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>295.9768228924842</v>
+        <v>623.1998847050068</v>
       </c>
       <c r="C4" t="n">
-        <v>124.0042597714002</v>
+        <v>548.1592013875803</v>
       </c>
       <c r="D4" t="n">
-        <v>71.89775734282044</v>
+        <v>548.1592013875803</v>
       </c>
       <c r="E4" t="n">
-        <v>71.89775734282044</v>
+        <v>381.9509955404339</v>
       </c>
       <c r="F4" t="n">
-        <v>71.89775734282044</v>
+        <v>381.9509955404339</v>
       </c>
       <c r="G4" t="n">
-        <v>71.89775734282044</v>
+        <v>215.694025834666</v>
       </c>
       <c r="H4" t="n">
         <v>71.89775734282044</v>
@@ -4512,28 +4512,28 @@
         <v>2252.310784755949</v>
       </c>
       <c r="R4" t="n">
-        <v>2205.272171443122</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="S4" t="n">
-        <v>2035.137123962257</v>
+        <v>2082.175737275084</v>
       </c>
       <c r="T4" t="n">
-        <v>1791.797776188157</v>
+        <v>1838.836389500983</v>
       </c>
       <c r="U4" t="n">
-        <v>1511.613327688461</v>
+        <v>1838.836389500983</v>
       </c>
       <c r="V4" t="n">
-        <v>1229.90186029649</v>
+        <v>1557.124922109012</v>
       </c>
       <c r="W4" t="n">
-        <v>955.0494564690027</v>
+        <v>1282.272518281525</v>
       </c>
       <c r="X4" t="n">
-        <v>712.4855599148078</v>
+        <v>1039.70862172733</v>
       </c>
       <c r="Y4" t="n">
-        <v>486.1427916045499</v>
+        <v>813.3658534170725</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2510.296542000307</v>
+        <v>1808.089101063791</v>
       </c>
       <c r="C5" t="n">
-        <v>2083.395812013608</v>
+        <v>1381.188371077091</v>
       </c>
       <c r="D5" t="n">
-        <v>1660.103191198608</v>
+        <v>957.8957502620915</v>
       </c>
       <c r="E5" t="n">
-        <v>1234.126251346466</v>
+        <v>531.9188104099491</v>
       </c>
       <c r="F5" t="n">
-        <v>809.0020695358658</v>
+        <v>106.7946285993492</v>
       </c>
       <c r="G5" t="n">
-        <v>404.6630071253144</v>
+        <v>106.7946285993492</v>
       </c>
       <c r="H5" t="n">
         <v>106.7946285993492</v>
@@ -4573,19 +4573,19 @@
         <v>1150.009524135215</v>
       </c>
       <c r="L5" t="n">
-        <v>1150.009524135215</v>
+        <v>1742.452134990904</v>
       </c>
       <c r="M5" t="n">
-        <v>2039.744271252618</v>
+        <v>2632.186882108307</v>
       </c>
       <c r="N5" t="n">
-        <v>2176.101402604124</v>
+        <v>2632.186882108307</v>
       </c>
       <c r="O5" t="n">
-        <v>3021.246052754936</v>
+        <v>3477.331532259119</v>
       </c>
       <c r="P5" t="n">
-        <v>3021.246052754936</v>
+        <v>3477.331532259119</v>
       </c>
       <c r="Q5" t="n">
         <v>3477.331532259119</v>
@@ -4594,25 +4594,25 @@
         <v>3594.887867141022</v>
       </c>
       <c r="S5" t="n">
-        <v>3594.887867141022</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="T5" t="n">
-        <v>3594.887867141022</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="U5" t="n">
-        <v>3594.887867141022</v>
+        <v>3232.165663610574</v>
       </c>
       <c r="V5" t="n">
-        <v>3594.887867141022</v>
+        <v>3232.165663610574</v>
       </c>
       <c r="W5" t="n">
-        <v>3594.887867141022</v>
+        <v>2835.774313910922</v>
       </c>
       <c r="X5" t="n">
-        <v>3183.167868308769</v>
+        <v>2633.274735400431</v>
       </c>
       <c r="Y5" t="n">
-        <v>2930.144906291837</v>
+        <v>2227.937465355321</v>
       </c>
     </row>
     <row r="6">
@@ -4652,22 +4652,22 @@
         <v>71.89775734282044</v>
       </c>
       <c r="L6" t="n">
-        <v>444.6858538584447</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="M6" t="n">
-        <v>1334.420600975848</v>
+        <v>961.6325044602233</v>
       </c>
       <c r="N6" t="n">
-        <v>1334.420600975848</v>
+        <v>1851.367251577626</v>
       </c>
       <c r="O6" t="n">
-        <v>1334.420600975848</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="P6" t="n">
-        <v>1334.420600975848</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="Q6" t="n">
-        <v>1798.566077838627</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="R6" t="n">
         <v>1880.58538792333</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>295.9768228924842</v>
+        <v>581.9890643951119</v>
       </c>
       <c r="C7" t="n">
-        <v>295.9768228924842</v>
+        <v>410.0165012740279</v>
       </c>
       <c r="D7" t="n">
-        <v>295.9768228924842</v>
+        <v>410.0165012740279</v>
       </c>
       <c r="E7" t="n">
-        <v>295.9768228924842</v>
+        <v>410.0165012740279</v>
       </c>
       <c r="F7" t="n">
-        <v>295.9768228924842</v>
+        <v>238.1547270485883</v>
       </c>
       <c r="G7" t="n">
-        <v>295.9768228924842</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H7" t="n">
-        <v>171.6663256025445</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I7" t="n">
         <v>71.89775734282044</v>
@@ -4749,28 +4749,28 @@
         <v>2252.310784755949</v>
       </c>
       <c r="R7" t="n">
-        <v>2205.272171443122</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="S7" t="n">
-        <v>2035.137123962257</v>
+        <v>2082.175737275084</v>
       </c>
       <c r="T7" t="n">
-        <v>1791.797776188157</v>
+        <v>1838.836389500983</v>
       </c>
       <c r="U7" t="n">
-        <v>1511.613327688461</v>
+        <v>1558.651941001288</v>
       </c>
       <c r="V7" t="n">
-        <v>1229.90186029649</v>
+        <v>1276.940473609317</v>
       </c>
       <c r="W7" t="n">
-        <v>955.0494564690027</v>
+        <v>1002.08806978183</v>
       </c>
       <c r="X7" t="n">
-        <v>712.4855599148078</v>
+        <v>772.1550331071776</v>
       </c>
       <c r="Y7" t="n">
-        <v>486.1427916045499</v>
+        <v>772.1550331071776</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1773.192229807262</v>
+        <v>1499.734175271866</v>
       </c>
       <c r="C8" t="n">
-        <v>1346.291499820562</v>
+        <v>1234.126251346466</v>
       </c>
       <c r="D8" t="n">
-        <v>922.9988790055627</v>
+        <v>1234.126251346466</v>
       </c>
       <c r="E8" t="n">
-        <v>497.0219391534202</v>
+        <v>1234.126251346466</v>
       </c>
       <c r="F8" t="n">
-        <v>71.89775734282044</v>
+        <v>809.0020695358658</v>
       </c>
       <c r="G8" t="n">
-        <v>71.89775734282044</v>
+        <v>404.6630071253144</v>
       </c>
       <c r="H8" t="n">
-        <v>71.89775734282044</v>
+        <v>106.7946285993492</v>
       </c>
       <c r="I8" t="n">
         <v>71.89775734282044</v>
@@ -4807,49 +4807,49 @@
         <v>434.501216159716</v>
       </c>
       <c r="K8" t="n">
-        <v>1150.009524135215</v>
+        <v>434.501216159716</v>
       </c>
       <c r="L8" t="n">
-        <v>2039.744271252618</v>
+        <v>434.501216159716</v>
       </c>
       <c r="M8" t="n">
-        <v>2039.744271252618</v>
+        <v>578.0873763287929</v>
       </c>
       <c r="N8" t="n">
-        <v>2041.463937832282</v>
+        <v>1467.822123446196</v>
       </c>
       <c r="O8" t="n">
-        <v>2886.608587983094</v>
+        <v>2312.966773597008</v>
       </c>
       <c r="P8" t="n">
-        <v>3594.887867141022</v>
+        <v>3021.246052754936</v>
       </c>
       <c r="Q8" t="n">
-        <v>3594.887867141022</v>
+        <v>3477.331532259119</v>
       </c>
       <c r="R8" t="n">
         <v>3594.887867141022</v>
       </c>
       <c r="S8" t="n">
-        <v>3594.887867141022</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="T8" t="n">
-        <v>3594.887867141022</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="U8" t="n">
-        <v>3358.641357504448</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="V8" t="n">
-        <v>3001.151942630698</v>
+        <v>3133.031158140411</v>
       </c>
       <c r="W8" t="n">
-        <v>2604.760592931045</v>
+        <v>2736.639808440758</v>
       </c>
       <c r="X8" t="n">
-        <v>2193.040594098792</v>
+        <v>2324.919809608506</v>
       </c>
       <c r="Y8" t="n">
-        <v>2193.040594098792</v>
+        <v>1919.582539563396</v>
       </c>
     </row>
     <row r="9">
@@ -4883,28 +4883,28 @@
         <v>79.34440030473228</v>
       </c>
       <c r="J9" t="n">
-        <v>351.0418895843234</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="K9" t="n">
-        <v>351.0418895843234</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="L9" t="n">
-        <v>351.0418895843234</v>
+        <v>916.1432083876384</v>
       </c>
       <c r="M9" t="n">
-        <v>351.0418895843234</v>
+        <v>916.1432083876384</v>
       </c>
       <c r="N9" t="n">
-        <v>351.0418895843234</v>
+        <v>1164.387670884832</v>
       </c>
       <c r="O9" t="n">
-        <v>1082.368360800129</v>
+        <v>1164.387670884832</v>
       </c>
       <c r="P9" t="n">
-        <v>1798.566077838627</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="Q9" t="n">
-        <v>1798.566077838627</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="R9" t="n">
         <v>1880.58538792333</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>315.4625940943901</v>
+        <v>415.732094689344</v>
       </c>
       <c r="C10" t="n">
-        <v>315.4625940943901</v>
+        <v>243.75953156826</v>
       </c>
       <c r="D10" t="n">
-        <v>315.4625940943901</v>
+        <v>243.75953156826</v>
       </c>
       <c r="E10" t="n">
-        <v>315.4625940943901</v>
+        <v>243.75953156826</v>
       </c>
       <c r="F10" t="n">
-        <v>315.4625940943901</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="G10" t="n">
-        <v>315.4625940943901</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H10" t="n">
-        <v>171.6663256025445</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I10" t="n">
         <v>71.89775734282044</v>
@@ -4986,28 +4986,28 @@
         <v>2252.310784755949</v>
       </c>
       <c r="R10" t="n">
-        <v>2205.272171443122</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="S10" t="n">
-        <v>2035.137123962257</v>
+        <v>2154.892395759116</v>
       </c>
       <c r="T10" t="n">
-        <v>1791.797776188157</v>
+        <v>1911.553047985016</v>
       </c>
       <c r="U10" t="n">
-        <v>1511.613327688461</v>
+        <v>1631.368599485321</v>
       </c>
       <c r="V10" t="n">
-        <v>1229.90186029649</v>
+        <v>1349.657132093349</v>
       </c>
       <c r="W10" t="n">
-        <v>955.0494564690027</v>
+        <v>1074.804728265862</v>
       </c>
       <c r="X10" t="n">
-        <v>712.4855599148078</v>
+        <v>832.2408317116676</v>
       </c>
       <c r="Y10" t="n">
-        <v>486.1427916045499</v>
+        <v>605.8980634014097</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1020.453694912913</v>
+        <v>1857.223590145616</v>
       </c>
       <c r="C11" t="n">
-        <v>593.5529649262128</v>
+        <v>1430.322860158916</v>
       </c>
       <c r="D11" t="n">
-        <v>170.260344111213</v>
+        <v>1007.030239343917</v>
       </c>
       <c r="E11" t="n">
-        <v>71.89775734282044</v>
+        <v>581.0532994917743</v>
       </c>
       <c r="F11" t="n">
-        <v>71.89775734282044</v>
+        <v>155.9291176811745</v>
       </c>
       <c r="G11" t="n">
-        <v>71.89775734282044</v>
+        <v>106.7946285993492</v>
       </c>
       <c r="H11" t="n">
-        <v>71.89775734282044</v>
+        <v>106.7946285993492</v>
       </c>
       <c r="I11" t="n">
         <v>71.89775734282044</v>
@@ -5047,22 +5047,22 @@
         <v>1150.009524135215</v>
       </c>
       <c r="L11" t="n">
-        <v>1150.009524135215</v>
+        <v>1815.418372906216</v>
       </c>
       <c r="M11" t="n">
-        <v>1150.009524135215</v>
+        <v>2705.153120023619</v>
       </c>
       <c r="N11" t="n">
-        <v>1923.907602950379</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="O11" t="n">
-        <v>2769.052253101192</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="P11" t="n">
-        <v>3477.331532259119</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="Q11" t="n">
-        <v>3477.331532259119</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="R11" t="n">
         <v>3594.887867141022</v>
@@ -5071,22 +5071,22 @@
         <v>3490.520573014162</v>
       </c>
       <c r="T11" t="n">
-        <v>3269.595002058796</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="U11" t="n">
-        <v>3011.240092655208</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="V11" t="n">
-        <v>2653.750677781458</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="W11" t="n">
-        <v>2257.359328081805</v>
+        <v>3094.129223314509</v>
       </c>
       <c r="X11" t="n">
-        <v>1845.639329249552</v>
+        <v>2682.409224482256</v>
       </c>
       <c r="Y11" t="n">
-        <v>1440.302059204443</v>
+        <v>2277.071954437146</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>71.89775734282044</v>
       </c>
       <c r="I12" t="n">
-        <v>71.89775734282044</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="J12" t="n">
-        <v>71.89775734282044</v>
+        <v>351.0418895843234</v>
       </c>
       <c r="K12" t="n">
-        <v>71.89775734282044</v>
+        <v>351.0418895843234</v>
       </c>
       <c r="L12" t="n">
-        <v>908.6965654257266</v>
+        <v>351.0418895843234</v>
       </c>
       <c r="M12" t="n">
-        <v>1798.431312543129</v>
+        <v>351.0418895843234</v>
       </c>
       <c r="N12" t="n">
-        <v>1798.431312543129</v>
+        <v>351.0418895843234</v>
       </c>
       <c r="O12" t="n">
-        <v>1880.58538792333</v>
+        <v>1240.523167595795</v>
       </c>
       <c r="P12" t="n">
-        <v>1880.58538792333</v>
+        <v>1334.420600975848</v>
       </c>
       <c r="Q12" t="n">
-        <v>1880.58538792333</v>
+        <v>1798.566077838627</v>
       </c>
       <c r="R12" t="n">
         <v>1880.58538792333</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1155.078879867057</v>
+        <v>415.732094689344</v>
       </c>
       <c r="C13" t="n">
-        <v>983.1063167459732</v>
+        <v>243.75953156826</v>
       </c>
       <c r="D13" t="n">
-        <v>819.7895438727439</v>
+        <v>243.75953156826</v>
       </c>
       <c r="E13" t="n">
-        <v>653.5813380255975</v>
+        <v>243.75953156826</v>
       </c>
       <c r="F13" t="n">
-        <v>481.7195638001579</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="G13" t="n">
-        <v>315.4625940943901</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H13" t="n">
-        <v>171.6663256025445</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I13" t="n">
         <v>71.89775734282044</v>
@@ -5226,25 +5226,25 @@
         <v>2252.310784755949</v>
       </c>
       <c r="S13" t="n">
-        <v>2252.310784755949</v>
+        <v>2082.175737275084</v>
       </c>
       <c r="T13" t="n">
-        <v>2252.310784755949</v>
+        <v>1838.836389500983</v>
       </c>
       <c r="U13" t="n">
-        <v>2252.310784755949</v>
+        <v>1631.368599485321</v>
       </c>
       <c r="V13" t="n">
-        <v>2089.003917271063</v>
+        <v>1349.657132093349</v>
       </c>
       <c r="W13" t="n">
-        <v>1814.151513443576</v>
+        <v>1074.804728265862</v>
       </c>
       <c r="X13" t="n">
-        <v>1571.587616889381</v>
+        <v>832.2408317116676</v>
       </c>
       <c r="Y13" t="n">
-        <v>1345.244848579123</v>
+        <v>605.8980634014097</v>
       </c>
     </row>
     <row r="14">
@@ -5254,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2105.957479589756</v>
+        <v>1653.099264700532</v>
       </c>
       <c r="C14" t="n">
-        <v>1679.056749603056</v>
+        <v>1253.079809750914</v>
       </c>
       <c r="D14" t="n">
-        <v>1255.764128788056</v>
+        <v>829.7871889359142</v>
       </c>
       <c r="E14" t="n">
         <v>829.7871889359142</v>
@@ -5284,16 +5284,16 @@
         <v>1150.009524135215</v>
       </c>
       <c r="L14" t="n">
-        <v>1996.873840865691</v>
+        <v>2039.744271252618</v>
       </c>
       <c r="M14" t="n">
-        <v>1996.873840865691</v>
+        <v>2705.153120023619</v>
       </c>
       <c r="N14" t="n">
-        <v>2886.608587983094</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="O14" t="n">
-        <v>2886.608587983094</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="P14" t="n">
         <v>3594.887867141022</v>
@@ -5308,22 +5308,22 @@
         <v>3490.520573014162</v>
       </c>
       <c r="T14" t="n">
-        <v>3269.595002058796</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="U14" t="n">
-        <v>3011.240092655208</v>
+        <v>3232.165663610574</v>
       </c>
       <c r="V14" t="n">
-        <v>2937.525842713539</v>
+        <v>2874.676248736824</v>
       </c>
       <c r="W14" t="n">
-        <v>2937.525842713539</v>
+        <v>2478.284899037171</v>
       </c>
       <c r="X14" t="n">
-        <v>2525.805843881286</v>
+        <v>2478.284899037171</v>
       </c>
       <c r="Y14" t="n">
-        <v>2525.805843881286</v>
+        <v>2072.947628992062</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>71.89775734282044</v>
       </c>
       <c r="I15" t="n">
-        <v>71.89775734282044</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="J15" t="n">
-        <v>71.89775734282044</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="K15" t="n">
-        <v>71.89775734282044</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="L15" t="n">
-        <v>908.6965654257266</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="M15" t="n">
-        <v>1798.431312543129</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="N15" t="n">
-        <v>1880.58538792333</v>
+        <v>192.8870827886574</v>
       </c>
       <c r="O15" t="n">
-        <v>1880.58538792333</v>
+        <v>1082.368360800129</v>
       </c>
       <c r="P15" t="n">
-        <v>1880.58538792333</v>
+        <v>1798.566077838627</v>
       </c>
       <c r="Q15" t="n">
-        <v>1880.58538792333</v>
+        <v>1798.566077838627</v>
       </c>
       <c r="R15" t="n">
         <v>1880.58538792333</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>295.9768228924842</v>
+        <v>415.732094689344</v>
       </c>
       <c r="C16" t="n">
-        <v>124.0042597714002</v>
+        <v>243.75953156826</v>
       </c>
       <c r="D16" t="n">
-        <v>71.89775734282044</v>
+        <v>243.75953156826</v>
       </c>
       <c r="E16" t="n">
-        <v>71.89775734282044</v>
+        <v>243.75953156826</v>
       </c>
       <c r="F16" t="n">
         <v>71.89775734282044</v>
@@ -5460,28 +5460,28 @@
         <v>2252.310784755949</v>
       </c>
       <c r="R16" t="n">
-        <v>2205.272171443122</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="S16" t="n">
-        <v>2035.137123962257</v>
+        <v>2154.892395759116</v>
       </c>
       <c r="T16" t="n">
-        <v>1791.797776188157</v>
+        <v>1911.553047985016</v>
       </c>
       <c r="U16" t="n">
-        <v>1511.613327688461</v>
+        <v>1631.368599485321</v>
       </c>
       <c r="V16" t="n">
-        <v>1229.90186029649</v>
+        <v>1349.657132093349</v>
       </c>
       <c r="W16" t="n">
-        <v>955.0494564690027</v>
+        <v>1074.804728265862</v>
       </c>
       <c r="X16" t="n">
-        <v>712.4855599148078</v>
+        <v>832.2408317116676</v>
       </c>
       <c r="Y16" t="n">
-        <v>486.1427916045499</v>
+        <v>605.8980634014097</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N17" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O17" t="n">
-        <v>4573.117879057176</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P17" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q17" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V17" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W17" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X17" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3873.571530742372</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C18" t="n">
-        <v>3756.065627259877</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D18" t="n">
-        <v>3652.225668775162</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E18" t="n">
-        <v>3547.5237350481</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F18" t="n">
-        <v>3453.877904731004</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G18" t="n">
-        <v>3359.824132948608</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H18" t="n">
-        <v>3306.448039710918</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>3306.448039710918</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>3306.448039710918</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K18" t="n">
-        <v>3306.448039710918</v>
+        <v>357.9938188649342</v>
       </c>
       <c r="L18" t="n">
-        <v>3306.448039710918</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="M18" t="n">
-        <v>3306.448039710918</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="N18" t="n">
-        <v>4395.762986183788</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O18" t="n">
-        <v>5115.135670291426</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P18" t="n">
-        <v>5115.135670291426</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q18" t="n">
-        <v>5115.135670291426</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R18" t="n">
-        <v>5115.135670291426</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S18" t="n">
-        <v>5033.811422852681</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T18" t="n">
-        <v>4891.931487150359</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U18" t="n">
-        <v>4707.163291069996</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V18" t="n">
-        <v>4502.190152209263</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W18" t="n">
-        <v>4305.66877504248</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X18" t="n">
-        <v>4142.191428809143</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y18" t="n">
-        <v>4002.498540162435</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="19">
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>373.4203922683193</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C19" t="n">
-        <v>268.5596831115964</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D19" t="n">
-        <v>268.5596831115964</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E19" t="n">
-        <v>268.5596831115964</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F19" t="n">
-        <v>268.5596831115964</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
         <v>102.3027134058285</v>
@@ -5673,10 +5673,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5700,25 +5700,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2112.580693338092</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T19" t="n">
-        <v>1869.241345563992</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U19" t="n">
-        <v>1589.056897064296</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V19" t="n">
-        <v>1307.345429672325</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W19" t="n">
-        <v>1032.493025844838</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X19" t="n">
-        <v>789.9291292906429</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y19" t="n">
-        <v>563.5863609803849</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D20" t="n">
         <v>1690.508147261616</v>
@@ -5740,49 +5740,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>817.8110213813276</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L20" t="n">
-        <v>1581.174581076927</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M20" t="n">
-        <v>2585.460682495986</v>
+        <v>2398.817321261059</v>
       </c>
       <c r="N20" t="n">
-        <v>3561.711740982686</v>
+        <v>3375.06837974776</v>
       </c>
       <c r="O20" t="n">
-        <v>4406.856391133499</v>
+        <v>4220.213029898572</v>
       </c>
       <c r="P20" t="n">
-        <v>5115.135670291426</v>
+        <v>4928.4923090565</v>
       </c>
       <c r="Q20" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3873.571530742372</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C21" t="n">
-        <v>3756.065627259877</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D21" t="n">
-        <v>3652.225668775162</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E21" t="n">
-        <v>3547.5237350481</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F21" t="n">
-        <v>3453.877904731004</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G21" t="n">
-        <v>3359.824132948608</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H21" t="n">
-        <v>3306.448039710918</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>3306.448039710918</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>3306.448039710918</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K21" t="n">
-        <v>3896.932966279257</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L21" t="n">
-        <v>3896.932966279257</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M21" t="n">
-        <v>3896.932966279257</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N21" t="n">
-        <v>3896.932966279257</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O21" t="n">
-        <v>3934.792476390149</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P21" t="n">
-        <v>4650.990193428647</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q21" t="n">
-        <v>5115.135670291426</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R21" t="n">
-        <v>5115.135670291426</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S21" t="n">
-        <v>5033.811422852681</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T21" t="n">
-        <v>4891.931487150359</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U21" t="n">
-        <v>4707.163291069996</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V21" t="n">
-        <v>4502.190152209263</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W21" t="n">
-        <v>4305.66877504248</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X21" t="n">
-        <v>4142.191428809143</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y21" t="n">
-        <v>4002.498540162435</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="22">
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>437.5920494001418</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C22" t="n">
-        <v>265.6194862790578</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D22" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E22" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F22" t="n">
         <v>102.3027134058285</v>
@@ -5910,10 +5910,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L22" t="n">
         <v>741.0109641302445</v>
@@ -5934,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T22" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U22" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V22" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W22" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X22" t="n">
-        <v>742.8905159778161</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y22" t="n">
-        <v>516.5477476675582</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C23" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D23" t="n">
         <v>1690.508147261616</v>
@@ -5977,49 +5977,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G23" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H23" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I23" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>651.5495334576516</v>
       </c>
       <c r="L23" t="n">
-        <v>1007.532766690842</v>
+        <v>1581.174581076928</v>
       </c>
       <c r="M23" t="n">
-        <v>2011.8188681099</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N23" t="n">
-        <v>2988.069926596601</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O23" t="n">
-        <v>3833.214576747413</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P23" t="n">
-        <v>4541.493855905341</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q23" t="n">
-        <v>4997.579335409524</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R23" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S23" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T23" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U23" t="n">
         <v>4531.487895805612</v>
@@ -6065,31 +6065,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>1218.245653730238</v>
       </c>
       <c r="M24" t="n">
-        <v>1158.289251381874</v>
+        <v>1218.245653730238</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>1218.245653730238</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>1218.245653730238</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4017.903765402535</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C25" t="n">
-        <v>3845.931202281451</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D25" t="n">
-        <v>3682.614429408221</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E25" t="n">
-        <v>3516.406223561075</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F25" t="n">
-        <v>3344.544449335635</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
-        <v>3178.287479629867</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>3034.491211138022</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>2992.213971102456</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K25" t="n">
-        <v>3218.741572308293</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L25" t="n">
-        <v>3573.430893602714</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M25" t="n">
-        <v>3964.616688572965</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N25" t="n">
-        <v>4342.108199449</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O25" t="n">
-        <v>4697.536328128764</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P25" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q25" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>4897.962009497734</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T25" t="n">
-        <v>4654.622661723634</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U25" t="n">
-        <v>4374.438213223939</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V25" t="n">
-        <v>4374.438213223939</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W25" t="n">
-        <v>4099.585809396452</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X25" t="n">
-        <v>4099.585809396452</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y25" t="n">
-        <v>4099.585809396452</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D26" t="n">
         <v>1690.508147261616</v>
@@ -6214,49 +6214,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>651.5495334576516</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>1581.174581076928</v>
       </c>
       <c r="M26" t="n">
         <v>2585.460682495986</v>
       </c>
       <c r="N26" t="n">
-        <v>3561.711740982686</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O26" t="n">
-        <v>4406.856391133499</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R26" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S26" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T26" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U26" t="n">
         <v>4531.487895805612</v>
@@ -6302,28 +6302,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>946.5481644506465</v>
       </c>
       <c r="M27" t="n">
-        <v>1158.289251381874</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="N27" t="n">
-        <v>1158.289251381874</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q27" t="n">
         <v>1910.990343986338</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>603.8002552472883</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C28" t="n">
-        <v>431.8276921262043</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D28" t="n">
-        <v>268.510919252975</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E28" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
         <v>102.3027134058285</v>
@@ -6384,10 +6384,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K28" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L28" t="n">
         <v>741.0109641302445</v>
@@ -6411,25 +6411,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2112.580693338092</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T28" t="n">
-        <v>2099.621208542961</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U28" t="n">
-        <v>1819.436760043265</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V28" t="n">
-        <v>1537.725292651294</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W28" t="n">
-        <v>1262.872888823807</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X28" t="n">
-        <v>1020.308992269612</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y28" t="n">
-        <v>793.966223959354</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D29" t="n">
         <v>1690.508147261616</v>
@@ -6451,49 +6451,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N29" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O29" t="n">
-        <v>4573.117879057176</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R29" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S29" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T29" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U29" t="n">
         <v>4531.487895805612</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3873.571530742372</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C30" t="n">
-        <v>3756.065627259877</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D30" t="n">
-        <v>3652.225668775162</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E30" t="n">
-        <v>3547.5237350481</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F30" t="n">
-        <v>3453.877904731004</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G30" t="n">
-        <v>3359.824132948608</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H30" t="n">
-        <v>3306.448039710918</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>3306.448039710918</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>3306.448039710918</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K30" t="n">
-        <v>3306.448039710918</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L30" t="n">
-        <v>3306.448039710918</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M30" t="n">
-        <v>4025.820723818556</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="N30" t="n">
-        <v>5115.135670291426</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="O30" t="n">
-        <v>5115.135670291426</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P30" t="n">
-        <v>5115.135670291426</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q30" t="n">
-        <v>5115.135670291426</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R30" t="n">
-        <v>5115.135670291426</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S30" t="n">
-        <v>5033.811422852681</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T30" t="n">
-        <v>4891.931487150359</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U30" t="n">
-        <v>4707.163291069996</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V30" t="n">
-        <v>4502.190152209263</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W30" t="n">
-        <v>4305.66877504248</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X30" t="n">
-        <v>4142.191428809143</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y30" t="n">
-        <v>4002.498540162435</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="31">
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>373.4203922683193</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C31" t="n">
         <v>274.1644876312681</v>
@@ -6621,10 +6621,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K31" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L31" t="n">
         <v>741.0109641302445</v>
@@ -6660,13 +6660,13 @@
         <v>1307.345429672325</v>
       </c>
       <c r="W31" t="n">
-        <v>1032.493025844838</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X31" t="n">
-        <v>789.9291292906429</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y31" t="n">
-        <v>563.5863609803849</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C32" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D32" t="n">
         <v>1690.508147261616</v>
@@ -6688,13 +6688,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G32" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H32" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I32" t="n">
         <v>102.3027134058285</v>
@@ -6718,19 +6718,19 @@
         <v>4573.117879057176</v>
       </c>
       <c r="P32" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R32" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S32" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T32" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U32" t="n">
         <v>4531.487895805612</v>
@@ -6776,28 +6776,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="M33" t="n">
-        <v>102.3027134058285</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="N33" t="n">
-        <v>1191.617659878699</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O33" t="n">
-        <v>1194.79262694784</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P33" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q33" t="n">
         <v>1910.990343986338</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1085.715267670341</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>913.7427045492574</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>750.4259316760281</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>584.2177258288816</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
-        <v>412.355951603442</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
         <v>102.3027134058285</v>
@@ -6858,10 +6858,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K34" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L34" t="n">
         <v>741.0109641302445</v>
@@ -6885,25 +6885,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2282.715740818957</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T34" t="n">
-        <v>2282.715740818957</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U34" t="n">
-        <v>2282.715740818957</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V34" t="n">
-        <v>2019.640305074347</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W34" t="n">
-        <v>1744.78790124686</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X34" t="n">
-        <v>1502.224004692665</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y34" t="n">
-        <v>1275.881236382407</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D35" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E35" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
@@ -6946,43 +6946,43 @@
         <v>1747.436069000604</v>
       </c>
       <c r="M35" t="n">
-        <v>2751.722170419663</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N35" t="n">
-        <v>3727.973228906364</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O35" t="n">
-        <v>4406.856391133499</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P35" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V35" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W35" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X35" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y35" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3873.571530742372</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C36" t="n">
-        <v>3756.065627259877</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D36" t="n">
-        <v>3652.225668775162</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E36" t="n">
-        <v>3547.5237350481</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F36" t="n">
-        <v>3453.877904731004</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G36" t="n">
-        <v>3359.824132948608</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H36" t="n">
-        <v>3306.448039710918</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>3306.448039710918</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>3306.448039710918</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K36" t="n">
-        <v>3306.448039710918</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="L36" t="n">
-        <v>3306.448039710918</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="M36" t="n">
-        <v>3306.448039710918</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="N36" t="n">
-        <v>4395.762986183788</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="O36" t="n">
-        <v>4398.937953252928</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="P36" t="n">
-        <v>5115.135670291426</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q36" t="n">
-        <v>5115.135670291426</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R36" t="n">
-        <v>5115.135670291426</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S36" t="n">
-        <v>5033.811422852681</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T36" t="n">
-        <v>4891.931487150359</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U36" t="n">
-        <v>4707.163291069996</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V36" t="n">
-        <v>4502.190152209263</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W36" t="n">
-        <v>4305.66877504248</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X36" t="n">
-        <v>4142.191428809143</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y36" t="n">
-        <v>4002.498540162435</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="37">
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1185.483835930065</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C37" t="n">
-        <v>1013.511272808981</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D37" t="n">
-        <v>850.1944999357521</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E37" t="n">
-        <v>683.9862940886056</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F37" t="n">
-        <v>512.124519863166</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G37" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H37" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7122,25 +7122,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2112.580693338092</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T37" t="n">
-        <v>2112.580693338092</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U37" t="n">
-        <v>2112.580693338092</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V37" t="n">
-        <v>2112.580693338092</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W37" t="n">
-        <v>1837.728289510605</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X37" t="n">
-        <v>1601.992572952389</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y37" t="n">
-        <v>1375.649804642131</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
@@ -7162,19 +7162,19 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883224</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
         <v>1180.414480198223</v>
@@ -7183,28 +7183,28 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2110.0395278175</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N38" t="n">
-        <v>3086.290586304201</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O38" t="n">
-        <v>3931.435236455013</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P38" t="n">
-        <v>4639.71451561294</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q38" t="n">
-        <v>5095.799995117123</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
@@ -7216,7 +7216,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y38" t="n">
         <v>2960.549862354846</v>
@@ -7250,28 +7250,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J39" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K39" t="n">
-        <v>102.3027134058285</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="L39" t="n">
-        <v>102.3027134058285</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="M39" t="n">
-        <v>1158.289251381874</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="N39" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O39" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P39" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q39" t="n">
         <v>1910.990343986338</v>
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>537.3606176598659</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C40" t="n">
-        <v>365.3880545387818</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D40" t="n">
-        <v>202.0712816655526</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E40" t="n">
-        <v>202.0712816655526</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F40" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7359,25 +7359,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2276.520918729638</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T40" t="n">
-        <v>2033.181570955538</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U40" t="n">
-        <v>1752.997122455842</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V40" t="n">
-        <v>1471.285655063871</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W40" t="n">
-        <v>1196.433251236384</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X40" t="n">
-        <v>953.8693546821894</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y40" t="n">
-        <v>727.5265863719314</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="41">
@@ -7402,55 +7402,55 @@
         <v>476.2368197533718</v>
       </c>
       <c r="G41" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H41" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I41" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J41" t="n">
-        <v>71.89775734282043</v>
+        <v>434.501216159716</v>
       </c>
       <c r="K41" t="n">
-        <v>71.89775734282043</v>
+        <v>1150.009524135215</v>
       </c>
       <c r="L41" t="n">
-        <v>961.6325044602232</v>
+        <v>1359.332893402032</v>
       </c>
       <c r="M41" t="n">
-        <v>1034.172855832976</v>
+        <v>2249.067640519435</v>
       </c>
       <c r="N41" t="n">
-        <v>1923.907602950379</v>
+        <v>3138.802387636838</v>
       </c>
       <c r="O41" t="n">
-        <v>2769.052253101191</v>
+        <v>3138.802387636838</v>
       </c>
       <c r="P41" t="n">
-        <v>3477.331532259118</v>
+        <v>3138.802387636838</v>
       </c>
       <c r="Q41" t="n">
-        <v>3477.331532259118</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="R41" t="n">
-        <v>3594.887867141021</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S41" t="n">
-        <v>3594.887867141021</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="T41" t="n">
-        <v>3594.887867141021</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="U41" t="n">
-        <v>3594.887867141021</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="V41" t="n">
-        <v>3414.436925386706</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="W41" t="n">
-        <v>3414.436925386706</v>
+        <v>3198.496517441368</v>
       </c>
       <c r="X41" t="n">
         <v>3002.716926554453</v>
@@ -7466,49 +7466,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>639.0212483742756</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C42" t="n">
-        <v>521.5153448917804</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D42" t="n">
-        <v>417.6753864070654</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E42" t="n">
         <v>312.9734526800027</v>
       </c>
       <c r="F42" t="n">
-        <v>219.3276223629068</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G42" t="n">
-        <v>125.2738505805108</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H42" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I42" t="n">
-        <v>71.89775734282043</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="J42" t="n">
-        <v>71.89775734282043</v>
+        <v>351.0418895843234</v>
       </c>
       <c r="K42" t="n">
-        <v>662.38268391116</v>
+        <v>941.5268161526629</v>
       </c>
       <c r="L42" t="n">
-        <v>662.38268391116</v>
+        <v>1778.325624235569</v>
       </c>
       <c r="M42" t="n">
-        <v>662.38268391116</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="N42" t="n">
-        <v>662.38268391116</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="O42" t="n">
-        <v>1416.439911060551</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="P42" t="n">
-        <v>1416.439911060551</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="Q42" t="n">
         <v>1880.58538792333</v>
@@ -7532,10 +7532,10 @@
         <v>1071.118492674383</v>
       </c>
       <c r="X42" t="n">
-        <v>907.641146441046</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y42" t="n">
-        <v>767.9482577943384</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1685.592518590384</v>
+        <v>579.0488675625733</v>
       </c>
       <c r="C43" t="n">
-        <v>1513.6199554693</v>
+        <v>407.0763044414893</v>
       </c>
       <c r="D43" t="n">
-        <v>1414.474839727893</v>
+        <v>243.75953156826</v>
       </c>
       <c r="E43" t="n">
-        <v>1414.474839727893</v>
+        <v>243.75953156826</v>
       </c>
       <c r="F43" t="n">
-        <v>1414.474839727893</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="G43" t="n">
-        <v>1414.474839727893</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H43" t="n">
-        <v>1414.474839727893</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I43" t="n">
-        <v>1414.474839727893</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J43" t="n">
-        <v>1471.966167952051</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K43" t="n">
-        <v>1698.493769157888</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L43" t="n">
-        <v>2053.183090452309</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M43" t="n">
-        <v>2444.36888542256</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N43" t="n">
-        <v>2821.860396298595</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O43" t="n">
-        <v>3177.288524978359</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P43" t="n">
-        <v>3467.887736900259</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q43" t="n">
-        <v>3594.887867141021</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R43" t="n">
-        <v>3594.887867141021</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="S43" t="n">
-        <v>3424.752819660156</v>
+        <v>2082.175737275084</v>
       </c>
       <c r="T43" t="n">
-        <v>3181.413471886056</v>
+        <v>1838.836389500983</v>
       </c>
       <c r="U43" t="n">
-        <v>2901.22902338636</v>
+        <v>1794.68537235855</v>
       </c>
       <c r="V43" t="n">
-        <v>2619.517555994389</v>
+        <v>1512.973904966579</v>
       </c>
       <c r="W43" t="n">
-        <v>2344.665152166902</v>
+        <v>1238.121501139092</v>
       </c>
       <c r="X43" t="n">
-        <v>2102.101255612708</v>
+        <v>995.5576045848968</v>
       </c>
       <c r="Y43" t="n">
-        <v>1875.75848730245</v>
+        <v>769.2148362746389</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1661.879739374708</v>
+        <v>2177.531292217814</v>
       </c>
       <c r="C44" t="n">
-        <v>1234.979009388008</v>
+        <v>1750.630562231114</v>
       </c>
       <c r="D44" t="n">
-        <v>1234.979009388008</v>
+        <v>1327.337941416114</v>
       </c>
       <c r="E44" t="n">
-        <v>809.0020695358658</v>
+        <v>901.3610015639716</v>
       </c>
       <c r="F44" t="n">
-        <v>809.0020695358658</v>
+        <v>476.2368197533718</v>
       </c>
       <c r="G44" t="n">
-        <v>404.6630071253144</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H44" t="n">
-        <v>106.7946285993492</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I44" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J44" t="n">
-        <v>434.5012161597159</v>
+        <v>434.501216159716</v>
       </c>
       <c r="K44" t="n">
         <v>1150.009524135215</v>
       </c>
       <c r="L44" t="n">
-        <v>1423.232026479605</v>
+        <v>2039.744271252618</v>
       </c>
       <c r="M44" t="n">
-        <v>1423.232026479605</v>
+        <v>2039.744271252618</v>
       </c>
       <c r="N44" t="n">
-        <v>2312.966773597007</v>
+        <v>2749.743216990209</v>
       </c>
       <c r="O44" t="n">
-        <v>2312.966773597007</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="P44" t="n">
-        <v>3021.246052754935</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="Q44" t="n">
-        <v>3477.331532259118</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="R44" t="n">
-        <v>3594.887867141021</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S44" t="n">
-        <v>3490.520573014162</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="T44" t="n">
-        <v>3269.595002058795</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="U44" t="n">
-        <v>3011.240092655207</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="V44" t="n">
-        <v>2653.750677781457</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="W44" t="n">
-        <v>2257.359328081804</v>
+        <v>3414.436925386706</v>
       </c>
       <c r="X44" t="n">
-        <v>2067.217009419818</v>
+        <v>3002.716926554453</v>
       </c>
       <c r="Y44" t="n">
-        <v>1661.879739374708</v>
+        <v>2597.379656509343</v>
       </c>
     </row>
     <row r="45">
@@ -7703,52 +7703,52 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>639.0212483742756</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C45" t="n">
-        <v>521.5153448917804</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D45" t="n">
-        <v>417.6753864070654</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E45" t="n">
         <v>312.9734526800027</v>
       </c>
       <c r="F45" t="n">
-        <v>219.3276223629068</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G45" t="n">
-        <v>125.2738505805108</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H45" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I45" t="n">
-        <v>71.89775734282043</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="J45" t="n">
-        <v>343.5952466224115</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="K45" t="n">
-        <v>343.5952466224115</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="L45" t="n">
-        <v>1180.394054705318</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="M45" t="n">
-        <v>1880.58538792333</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="N45" t="n">
-        <v>1880.58538792333</v>
+        <v>969.0791474221352</v>
       </c>
       <c r="O45" t="n">
-        <v>1880.58538792333</v>
+        <v>969.0791474221352</v>
       </c>
       <c r="P45" t="n">
-        <v>1880.58538792333</v>
+        <v>1334.420600975848</v>
       </c>
       <c r="Q45" t="n">
-        <v>1880.58538792333</v>
+        <v>1798.566077838627</v>
       </c>
       <c r="R45" t="n">
         <v>1880.58538792333</v>
@@ -7769,10 +7769,10 @@
         <v>1071.118492674383</v>
       </c>
       <c r="X45" t="n">
-        <v>907.641146441046</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y45" t="n">
-        <v>767.9482577943384</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="46">
@@ -7794,16 +7794,16 @@
         <v>243.75953156826</v>
       </c>
       <c r="F46" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="G46" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H46" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I46" t="n">
-        <v>71.89775734282043</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J46" t="n">
         <v>129.3890855669785</v>
@@ -7981,25 +7981,25 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L2" t="n">
-        <v>937.0340092178784</v>
+        <v>223.026847924627</v>
       </c>
       <c r="M2" t="n">
-        <v>936.1532296846873</v>
+        <v>936.1532296846872</v>
       </c>
       <c r="N2" t="n">
-        <v>936.0015896197016</v>
+        <v>936.0015896197015</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P2" t="n">
-        <v>439.2929263979174</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
         <v>35.03264989479647</v>
@@ -8063,22 +8063,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>22.51508671422956</v>
+        <v>52.02835575029422</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>921.8187472975834</v>
       </c>
       <c r="N3" t="n">
-        <v>21.34302821354166</v>
+        <v>920.064994998797</v>
       </c>
       <c r="O3" t="n">
-        <v>657.8632399032653</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
         <v>23.67291939414415</v>
@@ -8221,13 +8221,13 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L5" t="n">
-        <v>38.31204243262292</v>
+        <v>636.7389220848336</v>
       </c>
       <c r="M5" t="n">
-        <v>936.1532296846873</v>
+        <v>936.1532296846872</v>
       </c>
       <c r="N5" t="n">
-        <v>175.0140989470782</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
         <v>891.0724241548241</v>
@@ -8236,7 +8236,7 @@
         <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
         <v>153.7764225027789</v>
@@ -8300,25 +8300,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>399.0687195582944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>921.8187472975835</v>
+        <v>921.8187472975834</v>
       </c>
       <c r="N6" t="n">
-        <v>21.34302821354166</v>
+        <v>920.064994998797</v>
       </c>
       <c r="O6" t="n">
-        <v>23.17188972222222</v>
+        <v>52.685158758287</v>
       </c>
       <c r="P6" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8455,16 +8455,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>937.0340092178784</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>37.43126289943181</v>
+        <v>182.4677883227418</v>
       </c>
       <c r="N8" t="n">
-        <v>39.01665978360172</v>
+        <v>936.0015896197015</v>
       </c>
       <c r="O8" t="n">
         <v>891.0724241548241</v>
@@ -8473,10 +8473,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,22 +8531,22 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M9" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>21.34302821354166</v>
+        <v>272.0950105339394</v>
       </c>
       <c r="O9" t="n">
-        <v>761.8854970109148</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
         <v>745.2028786174529</v>
@@ -8555,7 +8555,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R9" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8695,25 +8695,25 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>38.31204243262292</v>
+        <v>710.4421927063607</v>
       </c>
       <c r="M11" t="n">
-        <v>37.43126289943181</v>
+        <v>936.1532296846872</v>
       </c>
       <c r="N11" t="n">
-        <v>818.9948539608747</v>
+        <v>936.0015896197015</v>
       </c>
       <c r="O11" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P11" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q11" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R11" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,34 +8765,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>921.8187472975835</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>106.1558042476775</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P12" t="n">
-        <v>21.77084120482866</v>
+        <v>116.6167335079122</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8932,19 +8932,19 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>893.7305441805787</v>
+        <v>937.0340092178783</v>
       </c>
       <c r="M14" t="n">
-        <v>37.43126289943181</v>
+        <v>709.5614131731696</v>
       </c>
       <c r="N14" t="n">
-        <v>936.0015896197016</v>
+        <v>936.0015896197015</v>
       </c>
       <c r="O14" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P14" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q14" t="n">
         <v>36.12467460459804</v>
@@ -9002,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
         <v>20.61111433333334</v>
@@ -9011,25 +9011,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>921.8187472975835</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>104.326942738997</v>
+        <v>136.0326064801327</v>
       </c>
       <c r="O15" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q15" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
         <v>758.5002654165255</v>
@@ -9181,7 +9181,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>585.0680802286663</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q17" t="n">
         <v>36.12467460459804</v>
@@ -9239,28 +9239,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>273.1512161537311</v>
       </c>
       <c r="L18" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M18" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>749.8109645784228</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q18" t="n">
         <v>22.7470382889785</v>
@@ -9400,13 +9400,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L20" t="n">
-        <v>809.386345155451</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
         <v>1051.861668373228</v>
@@ -9421,7 +9421,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>224.6533223166459</v>
       </c>
       <c r="R20" t="n">
         <v>35.03264989479647</v>
@@ -9476,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
         <v>618.848654609434</v>
@@ -9494,16 +9494,16 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>61.41381912716336</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>745.2028786174529</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q21" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>758.5002654165255</v>
+        <v>224.2932485068573</v>
       </c>
       <c r="L23" t="n">
-        <v>229.9501690078898</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
         <v>1051.861668373228</v>
@@ -9658,10 +9658,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R23" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,34 +9713,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L24" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M24" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>638.6651646102807</v>
       </c>
       <c r="Q24" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,16 +9874,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>758.5002654165255</v>
+        <v>224.2932485068573</v>
       </c>
       <c r="L26" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
-        <v>883.920771480625</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N26" t="n">
         <v>1023.391803124043</v>
@@ -9950,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
         <v>20.61111433333334</v>
@@ -9959,22 +9959,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L27" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M27" t="n">
-        <v>1089.749849175</v>
+        <v>528.4469852324416</v>
       </c>
       <c r="N27" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>783.4760236661258</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
         <v>23.67291939414415</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
@@ -10129,7 +10129,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>585.0680802286663</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q29" t="n">
         <v>36.12467460459804</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
         <v>22.39923383333334</v>
@@ -10199,22 +10199,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>749.7358553685286</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>23.17188972222222</v>
+        <v>293.0516819980064</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10366,7 +10366,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>585.0680802286663</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q32" t="n">
         <v>36.12467460459804</v>
@@ -10424,31 +10424,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
-        <v>22.51508671422956</v>
+        <v>502.225283590884</v>
       </c>
       <c r="M33" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>26.37892716579976</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
         <v>23.67291939414415</v>
@@ -10594,13 +10594,13 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>883.9207714806259</v>
       </c>
       <c r="N35" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O35" t="n">
-        <v>723.1315272622212</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
         <v>753.0089771212694</v>
@@ -10661,13 +10661,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
@@ -10676,10 +10676,10 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>26.37892716579861</v>
+        <v>439.8779845980375</v>
       </c>
       <c r="P36" t="n">
         <v>745.2028786174529</v>
@@ -10688,7 +10688,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N38" t="n">
         <v>1023.391803124043</v>
@@ -10840,13 +10840,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q38" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R38" t="n">
-        <v>54.56363491934506</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,22 +10898,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
-        <v>22.51508671422956</v>
+        <v>776.6671919541075</v>
       </c>
       <c r="M39" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
         <v>23.17188972222222</v>
@@ -10922,7 +10922,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
         <v>23.67291939414415</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>937.0340092178782</v>
+        <v>249.7497891667818</v>
       </c>
       <c r="M41" t="n">
-        <v>110.7043450941313</v>
+        <v>936.1532296846872</v>
       </c>
       <c r="N41" t="n">
-        <v>936.0015896197013</v>
+        <v>936.0015896197015</v>
       </c>
       <c r="O41" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P41" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,31 +11135,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
         <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M42" t="n">
-        <v>23.09678051232798</v>
+        <v>126.389471106026</v>
       </c>
       <c r="N42" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>784.8458565397888</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
         <v>23.67291939414415</v>
@@ -11302,25 +11302,25 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>314.2943680330164</v>
+        <v>937.0340092178783</v>
       </c>
       <c r="M44" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>936.0015896197013</v>
+        <v>754.4502750946394</v>
       </c>
       <c r="O44" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q44" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R44" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,34 +11372,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>730.3607534598156</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>21.34302821354166</v>
+        <v>920.064994998797</v>
       </c>
       <c r="O45" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>390.802612471205</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22558,16 +22558,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>141.9347038058938</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22597,7 +22597,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>218.7163152458132</v>
@@ -22606,7 +22606,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>270.7234739900423</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22615,7 +22615,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22707,22 +22707,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>95.96256100562097</v>
       </c>
       <c r="D4" t="n">
-        <v>110.098167740203</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>98.77088257712678</v>
@@ -22752,7 +22752,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -22761,7 +22761,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -22798,10 +22798,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -22834,25 +22834,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>207.1282161185445</v>
       </c>
       <c r="Y5" t="n">
-        <v>150.7911649478958</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22944,7 +22944,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>161.683605144497</v>
@@ -22953,16 +22953,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>19.2909134898868</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22989,7 +22989,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -23007,10 +23007,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>12.50455128074753</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -23023,25 +23023,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>159.6798780006865</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,13 +23071,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>21.88731576934353</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -23089,7 +23089,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23178,10 +23178,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.29091348988678</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>161.683605144497</v>
@@ -23190,16 +23190,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23226,10 +23226,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -23266,19 +23266,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>324.3382095529123</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>351.6525275954389</v>
       </c>
       <c r="H11" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,13 +23311,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,16 +23466,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>71.98949189919261</v>
       </c>
       <c r="V13" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23497,13 +23497,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>26.61246228671132</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23548,22 +23548,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>280.9374132827602</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23658,13 +23658,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>110.098167740203</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>164.5944000087102</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>66.44073542471746</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>161.683605144497</v>
@@ -23901,10 +23901,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
         <v>142.3583058069271</v>
@@ -23940,7 +23940,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>110.0981677402028</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>164.5944000087102</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>107.3990854709672</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>71.9894918991925</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24423,16 +24423,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24606,13 +24606,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>164.5944000087102</v>
@@ -24651,10 +24651,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T28" t="n">
-        <v>228.0760643491791</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>71.98949189919249</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>161.683605144497</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>71.9894918991923</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25080,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
         <v>98.77088257712678</v>
@@ -25125,16 +25125,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>18.44967133088738</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,22 +25362,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>6.759898196019378</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25554,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>164.5944000087102</v>
@@ -25569,7 +25569,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>162.300823137631</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25687,13 +25687,13 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>175.2680883882408</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>213.7810038658841</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>63.52994056050414</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>164.5944000087102</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>233.6730970436895</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>213.7810038658839</v>
       </c>
       <c r="X44" t="n">
-        <v>219.3619033685637</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>533549.792898687</v>
+        <v>533549.7928986867</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>533549.7928986868</v>
+        <v>533549.7928986867</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>533549.792898687</v>
+        <v>533549.7928986868</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>533549.792898687</v>
+        <v>533549.7928986868</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>533549.792898687</v>
+        <v>533549.7928986868</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>674436.4837649369</v>
+        <v>674436.4837649368</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>674436.4837649369</v>
+        <v>674436.4837649368</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>533549.7928986867</v>
+        <v>533549.7928986868</v>
       </c>
     </row>
   </sheetData>
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>244543.6550785647</v>
+        <v>244543.6550785646</v>
       </c>
       <c r="C2" t="n">
-        <v>244543.6550785648</v>
+        <v>244543.6550785646</v>
       </c>
       <c r="D2" t="n">
-        <v>244543.6550785648</v>
+        <v>244543.6550785646</v>
       </c>
       <c r="E2" t="n">
         <v>244543.6550785647</v>
@@ -26331,31 +26331,31 @@
         <v>309116.7217255959</v>
       </c>
       <c r="H2" t="n">
+        <v>309116.721725596</v>
+      </c>
+      <c r="I2" t="n">
+        <v>309116.721725596</v>
+      </c>
+      <c r="J2" t="n">
         <v>309116.7217255959</v>
-      </c>
-      <c r="I2" t="n">
-        <v>309116.7217255959</v>
-      </c>
-      <c r="J2" t="n">
-        <v>309116.721725596</v>
       </c>
       <c r="K2" t="n">
         <v>309116.7217255959</v>
       </c>
       <c r="L2" t="n">
-        <v>309116.7217255959</v>
+        <v>309116.7217255958</v>
       </c>
       <c r="M2" t="n">
-        <v>309116.7217255959</v>
+        <v>309116.7217255962</v>
       </c>
       <c r="N2" t="n">
         <v>309116.7217255959</v>
       </c>
       <c r="O2" t="n">
-        <v>244543.6550785646</v>
+        <v>244543.6550785647</v>
       </c>
       <c r="P2" t="n">
-        <v>244543.6550785646</v>
+        <v>244543.6550785647</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>301182.4016749752</v>
+        <v>301182.4016749751</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>235145.2102775614</v>
+        <v>235145.2102775613</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26423,37 +26423,37 @@
         <v>620.3761832340385</v>
       </c>
       <c r="D4" t="n">
-        <v>620.3761832340388</v>
+        <v>620.3761832340385</v>
       </c>
       <c r="E4" t="n">
-        <v>620.3761832340386</v>
+        <v>620.3761832340385</v>
       </c>
       <c r="F4" t="n">
-        <v>620.3761832340386</v>
+        <v>620.3761832340385</v>
       </c>
       <c r="G4" t="n">
-        <v>800.060259943367</v>
+        <v>800.0602599433672</v>
       </c>
       <c r="H4" t="n">
-        <v>800.060259943367</v>
+        <v>800.0602599433671</v>
       </c>
       <c r="I4" t="n">
-        <v>800.060259943367</v>
+        <v>800.0602599433672</v>
       </c>
       <c r="J4" t="n">
-        <v>800.060259943367</v>
+        <v>800.0602599433671</v>
       </c>
       <c r="K4" t="n">
-        <v>800.0602599433669</v>
+        <v>800.0602599433671</v>
       </c>
       <c r="L4" t="n">
         <v>800.0602599433671</v>
       </c>
       <c r="M4" t="n">
-        <v>800.060259943367</v>
+        <v>800.0602599433671</v>
       </c>
       <c r="N4" t="n">
-        <v>800.060259943367</v>
+        <v>800.0602599433671</v>
       </c>
       <c r="O4" t="n">
         <v>620.3761832340385</v>
@@ -26484,34 +26484,34 @@
         <v>54642.29558054353</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="I5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="J5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="K5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="L5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>54642.29558054352</v>
+        <v>54642.29558054353</v>
       </c>
       <c r="P5" t="n">
-        <v>54642.29558054352</v>
+        <v>54642.29558054353</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-145529.0183601881</v>
+        <v>-145873.5629616771</v>
       </c>
       <c r="C6" t="n">
-        <v>155653.3833147872</v>
+        <v>155308.8387132981</v>
       </c>
       <c r="D6" t="n">
-        <v>155653.3833147872</v>
+        <v>155308.8387132981</v>
       </c>
       <c r="E6" t="n">
-        <v>189280.9833147871</v>
+        <v>188936.4387132981</v>
       </c>
       <c r="F6" t="n">
-        <v>189280.9833147871</v>
+        <v>188936.4387132981</v>
       </c>
       <c r="G6" t="n">
-        <v>126397.3194956032</v>
+        <v>126346.2888334189</v>
       </c>
       <c r="H6" t="n">
-        <v>230566.5992772229</v>
+        <v>230515.5686150386</v>
       </c>
       <c r="I6" t="n">
-        <v>230566.5992772229</v>
+        <v>230515.5686150386</v>
       </c>
       <c r="J6" t="n">
-        <v>-4578.611000338424</v>
+        <v>-4629.641662522786</v>
       </c>
       <c r="K6" t="n">
-        <v>230566.5992772229</v>
+        <v>230515.5686150386</v>
       </c>
       <c r="L6" t="n">
-        <v>230566.5992772229</v>
+        <v>230515.5686150385</v>
       </c>
       <c r="M6" t="n">
-        <v>230566.5992772229</v>
+        <v>230515.5686150388</v>
       </c>
       <c r="N6" t="n">
-        <v>230566.5992772228</v>
+        <v>230515.5686150386</v>
       </c>
       <c r="O6" t="n">
-        <v>189280.983314787</v>
+        <v>188936.4387132982</v>
       </c>
       <c r="P6" t="n">
-        <v>189280.983314787</v>
+        <v>188936.4387132982</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>898.7219667852555</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="C4" t="n">
-        <v>898.7219667852555</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="D4" t="n">
-        <v>898.7219667852555</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="E4" t="n">
-        <v>898.7219667852555</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="F4" t="n">
-        <v>898.7219667852555</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26828,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>898.7219667852553</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="P4" t="n">
-        <v>898.7219667852553</v>
+        <v>898.7219667852554</v>
       </c>
     </row>
   </sheetData>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>898.7219667852555</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>380.0619507876012</v>
+        <v>380.0619507876014</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>898.7219667852555</v>
+        <v>898.7219667852553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>898.7219667852555</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>380.0619507876012</v>
+        <v>380.0619507876014</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34701,25 +34701,25 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L2" t="n">
-        <v>898.7219667852555</v>
+        <v>184.7148054920041</v>
       </c>
       <c r="M2" t="n">
-        <v>898.7219667852555</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="N2" t="n">
-        <v>898.7219667852555</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P2" t="n">
-        <v>401.7175645876861</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34783,22 +34783,22 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>29.51326903606467</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="O3" t="n">
-        <v>634.691350181043</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34941,13 +34941,13 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>598.4268796522107</v>
       </c>
       <c r="M5" t="n">
-        <v>898.7219667852555</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="N5" t="n">
-        <v>137.7344761126321</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>853.6814647988001</v>
@@ -34956,7 +34956,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>118.7437726079824</v>
@@ -35020,25 +35020,25 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>376.5536328440649</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>898.7219667852555</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>29.51326903606477</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35175,16 +35175,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>898.7219667852555</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>145.03652542331</v>
       </c>
       <c r="N8" t="n">
-        <v>1.737036949155693</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="O8" t="n">
         <v>853.6814647988001</v>
@@ -35193,10 +35193,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,22 +35251,22 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>250.7519823203978</v>
       </c>
       <c r="O9" t="n">
-        <v>738.7136072886926</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>723.4320374126243</v>
@@ -35275,7 +35275,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35415,25 +35415,25 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>672.1301502737379</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7152311264286</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="O11" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>898.7219667852555</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>82.98391452545532</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>94.84589230308353</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35652,19 +35652,19 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>855.4185017479558</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>672.1301502737379</v>
       </c>
       <c r="N14" t="n">
-        <v>898.7219667852555</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35731,25 +35731,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>898.7219667852555</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>82.98391452545532</v>
+        <v>114.689578266591</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
         <v>722.7356646217162</v>
@@ -35901,7 +35901,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>547.4927184184349</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35959,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>250.7519823203978</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>726.6390748562006</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36120,13 +36120,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>771.0743027228281</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
         <v>1014.430405473796</v>
@@ -36141,7 +36141,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>188.5286477120479</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
         <v>596.4494207761006</v>
@@ -36214,16 +36214,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>38.24192940494115</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>723.4320374126243</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q21" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,13 +36357,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
-        <v>722.7356646217162</v>
+        <v>188.528647712048</v>
       </c>
       <c r="L23" t="n">
-        <v>191.6381265752669</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
         <v>1014.430405473796</v>
@@ -36378,10 +36378,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M24" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>616.894323405452</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,16 +36594,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
-        <v>722.7356646217162</v>
+        <v>188.528647712048</v>
       </c>
       <c r="L26" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
-        <v>846.4895085811933</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N26" t="n">
         <v>986.1121802895968</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -36679,22 +36679,22 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M27" t="n">
-        <v>1066.653068662672</v>
+        <v>505.3502047201137</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
@@ -36849,7 +36849,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>547.4927184184349</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36919,22 +36919,22 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>726.6390748562006</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>269.8797922757842</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37086,7 +37086,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>547.4927184184349</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>479.7101968766545</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>3.207037443577533</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37314,13 +37314,13 @@
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>846.4895085811942</v>
       </c>
       <c r="N35" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O35" t="n">
-        <v>685.740567906197</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
         <v>715.433615311038</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37396,10 +37396,10 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>3.207037443576385</v>
+        <v>416.7060948758153</v>
       </c>
       <c r="P36" t="n">
         <v>723.4320374126243</v>
@@ -37408,7 +37408,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N38" t="n">
         <v>986.1121802895968</v>
@@ -37560,13 +37560,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q38" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>19.53098502454859</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,22 +37618,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>754.1521052398779</v>
       </c>
       <c r="M39" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37642,7 +37642,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>898.7219667852553</v>
+        <v>211.4377467341589</v>
       </c>
       <c r="M41" t="n">
-        <v>73.27308219469953</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="N41" t="n">
-        <v>898.7219667852553</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="O41" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
         <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>103.292690593698</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>761.6739668175666</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38022,25 +38022,25 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>275.9823256003935</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>898.7219667852553</v>
+        <v>717.1706522601934</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>707.2639729474876</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>369.0317712663763</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
